--- a/Part-time-Employment Analysis .xlsx
+++ b/Part-time-Employment Analysis .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE74C17F-782E-F24F-BBFF-28C29AF95DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBF50DB-15BA-F145-9D95-53F9137C915A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="42" r:id="rId9"/>
-    <pivotCache cacheId="46" r:id="rId10"/>
+    <pivotCache cacheId="49" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7848" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8263" uniqueCount="199">
   <si>
     <t>Full-Time</t>
   </si>
@@ -595,17 +595,63 @@
   <si>
     <t>% Partime</t>
   </si>
+  <si>
+    <t>Year on Year pp change</t>
+  </si>
+  <si>
+    <t>Change from 2014 to 2018</t>
+  </si>
+  <si>
+    <t>2014 to 2018</t>
+  </si>
+  <si>
+    <t>Change in pp PT employees</t>
+  </si>
+  <si>
+    <t>2014 - Female</t>
+  </si>
+  <si>
+    <t>2018 - Female</t>
+  </si>
+  <si>
+    <t>Change in pp female PT employees</t>
+  </si>
+  <si>
+    <t>2014 - Male</t>
+  </si>
+  <si>
+    <t>2018 - Male</t>
+  </si>
+  <si>
+    <t>% Male PT employees in the Cluster</t>
+  </si>
+  <si>
+    <t>Change in pp Male PT employees</t>
+  </si>
+  <si>
+    <t>We use 40% as a benchmark for accepted part-time employees</t>
+  </si>
+  <si>
+    <t>% in 2018</t>
+  </si>
+  <si>
+    <t>Female Higher</t>
+  </si>
+  <si>
+    <t>Male Higher</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,6 +728,13 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1052,7 +1105,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1178,6 +1231,23 @@
     <xf numFmtId="166" fontId="9" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -1185,7 +1255,47 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -37102,7 +37212,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E207302E-A61D-D247-B8AE-CFD016FE640B}" name="PivotTable15" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E207302E-A61D-D247-B8AE-CFD016FE640B}" name="PivotTable15" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -37180,7 +37290,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{848B45F5-20BF-4340-97BE-37B59BA00319}" name="PivotTable16" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{848B45F5-20BF-4340-97BE-37B59BA00319}" name="PivotTable16" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A16:D29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -37291,7 +37401,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0FC47CF-A9CC-1D4A-BEE3-C79E16D1E198}" name="PivotTable18" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0FC47CF-A9CC-1D4A-BEE3-C79E16D1E198}" name="PivotTable18" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A15:D40" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -37445,7 +37555,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B087311C-995B-444F-AB5C-BE152475F7D6}" name="PivotTable17" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B087311C-995B-444F-AB5C-BE152475F7D6}" name="PivotTable17" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:D10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -37523,16 +37633,461 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABDC782E-B760-4843-BFA7-624C1DC09710}" name="PivotTable21" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A48:D96" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="2"/>
+    <field x="4"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="47">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Headcount" fld="5" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EF7ACB4-0F96-5248-BFA9-236C0B20507B}" name="PivotTable20" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A16:D40" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Headcount" fld="5" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C72D266-C1AB-7142-B0C0-62148F734377}" name="PivotTable19" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Headcount" fld="5" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15671EA7-81D4-0640-A94B-A10A57920AF5}" name="tab" displayName="tab" ref="A1:F1841" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15671EA7-81D4-0640-A94B-A10A57920AF5}" name="tab" displayName="tab" ref="A1:F1841" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:F1841" xr:uid="{15671EA7-81D4-0640-A94B-A10A57920AF5}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1AC9E23E-B678-3544-BAB3-F96F6B758445}" name="Cluster" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{EE80BB09-0EF8-BD49-A1CC-FF1DCF568DDB}" name="Agency" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D0D7C5F4-EC5A-BF41-A91D-303832942DED}" name="Year" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{77DD2D2B-FA77-4447-8D24-BA4A0FE4E44E}" name="PT/FT" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{F4228B6B-D55A-3344-90B2-B6D0CA0D278D}" name="Gender" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{922F4E71-7419-AE44-8DEB-1CC130F63353}" name="Headcount" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{1AC9E23E-B678-3544-BAB3-F96F6B758445}" name="Cluster" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{EE80BB09-0EF8-BD49-A1CC-FF1DCF568DDB}" name="Agency" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D0D7C5F4-EC5A-BF41-A91D-303832942DED}" name="Year" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{77DD2D2B-FA77-4447-8D24-BA4A0FE4E44E}" name="PT/FT" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{F4228B6B-D55A-3344-90B2-B6D0CA0D278D}" name="Gender" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{922F4E71-7419-AE44-8DEB-1CC130F63353}" name="Headcount" dataDxfId="4" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -37804,7 +38359,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E37"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -83058,8 +83613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCA13AD-3D0A-2E4F-B4BB-F9DD31AEE387}">
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -84034,24 +84589,6196 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242B307F-4D16-A04A-9C2A-9E671B8E1265}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="54">
+        <v>2014</v>
+      </c>
+      <c r="G4" s="54">
+        <v>280407</v>
+      </c>
+      <c r="H4" s="54">
+        <v>101978</v>
+      </c>
+      <c r="I4" s="54">
+        <v>382385</v>
+      </c>
+      <c r="J4" s="61">
+        <f>H4/I4</f>
+        <v>0.26668933143297985</v>
+      </c>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="24">
+        <v>280407</v>
+      </c>
+      <c r="C5" s="24">
+        <v>101978</v>
+      </c>
+      <c r="D5" s="24">
+        <v>382385</v>
+      </c>
+      <c r="F5" s="54">
+        <v>2015</v>
+      </c>
+      <c r="G5" s="54">
+        <v>270542</v>
+      </c>
+      <c r="H5" s="54">
+        <v>104245</v>
+      </c>
+      <c r="I5" s="54">
+        <v>374787</v>
+      </c>
+      <c r="J5" s="61">
+        <f t="shared" ref="J5:J7" si="0">H5/I5</f>
+        <v>0.27814465282947382</v>
+      </c>
+      <c r="K5" s="80">
+        <f>(J5-J4)*100</f>
+        <v>1.1455321396493967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="24">
+        <v>270542</v>
+      </c>
+      <c r="C6" s="24">
+        <v>104245</v>
+      </c>
+      <c r="D6" s="24">
+        <v>374787</v>
+      </c>
+      <c r="F6" s="54">
+        <v>2016</v>
+      </c>
+      <c r="G6" s="54">
+        <v>272465</v>
+      </c>
+      <c r="H6" s="54">
+        <v>102942</v>
+      </c>
+      <c r="I6" s="54">
+        <v>375407</v>
+      </c>
+      <c r="J6" s="61">
+        <f t="shared" si="0"/>
+        <v>0.2742143859864094</v>
+      </c>
+      <c r="K6" s="80">
+        <f t="shared" ref="K6:K8" si="1">(J6-J5)*100</f>
+        <v>-0.39302668430644117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="24">
+        <v>272465</v>
+      </c>
+      <c r="C7" s="24">
+        <v>102942</v>
+      </c>
+      <c r="D7" s="24">
+        <v>375407</v>
+      </c>
+      <c r="F7" s="54">
+        <v>2017</v>
+      </c>
+      <c r="G7" s="54">
+        <v>270370</v>
+      </c>
+      <c r="H7" s="54">
+        <v>109427</v>
+      </c>
+      <c r="I7" s="54">
+        <v>379797</v>
+      </c>
+      <c r="J7" s="61">
+        <f t="shared" si="0"/>
+        <v>0.28811970605349702</v>
+      </c>
+      <c r="K7" s="80">
+        <f t="shared" si="1"/>
+        <v>1.3905320067087612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="24">
+        <v>270370</v>
+      </c>
+      <c r="C8" s="24">
+        <v>109427</v>
+      </c>
+      <c r="D8" s="24">
+        <v>379797</v>
+      </c>
+      <c r="F8" s="54">
+        <v>2018</v>
+      </c>
+      <c r="G8" s="54">
+        <v>267210</v>
+      </c>
+      <c r="H8" s="54">
+        <v>112250</v>
+      </c>
+      <c r="I8" s="54">
+        <v>379460</v>
+      </c>
+      <c r="J8" s="61">
+        <f>H8/I8</f>
+        <v>0.29581510567648767</v>
+      </c>
+      <c r="K8" s="80">
+        <f t="shared" si="1"/>
+        <v>0.76953996229906507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="24">
+        <v>267210</v>
+      </c>
+      <c r="C9" s="24">
+        <v>112250</v>
+      </c>
+      <c r="D9" s="24">
+        <v>379460</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="24">
+        <v>1360994</v>
+      </c>
+      <c r="C10" s="24">
+        <v>530842</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1891836</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F11" s="20"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="79">
+        <f>(J8-J4)*100</f>
+        <v>2.9125774243507818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="69">
+        <v>2014</v>
+      </c>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="69">
+        <v>2018</v>
+      </c>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="O17" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="P17" s="53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="24">
+        <v>280407</v>
+      </c>
+      <c r="C18" s="24">
+        <v>101978</v>
+      </c>
+      <c r="D18" s="24">
+        <v>382385</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="54">
+        <v>61299</v>
+      </c>
+      <c r="H18" s="54">
+        <v>40432</v>
+      </c>
+      <c r="I18" s="54">
+        <v>101731</v>
+      </c>
+      <c r="J18" s="61">
+        <f t="shared" ref="J18:J28" si="2">H18/I18</f>
+        <v>0.39744030826395099</v>
+      </c>
+      <c r="K18" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="54">
+        <v>60515</v>
+      </c>
+      <c r="M18" s="54">
+        <v>47939</v>
+      </c>
+      <c r="N18" s="54">
+        <v>108454</v>
+      </c>
+      <c r="O18" s="61">
+        <f t="shared" ref="O18:O28" si="3">M18/N18</f>
+        <v>0.44202150220369929</v>
+      </c>
+      <c r="P18" s="81">
+        <f t="shared" ref="P18:P28" si="4">((O18-J18)*100)</f>
+        <v>4.4581193939748296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="24">
+        <v>61299</v>
+      </c>
+      <c r="C19" s="24">
+        <v>40432</v>
+      </c>
+      <c r="D19" s="24">
+        <v>101731</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="54">
+        <v>13792</v>
+      </c>
+      <c r="H19" s="54">
+        <v>6864</v>
+      </c>
+      <c r="I19" s="54">
+        <v>20656</v>
+      </c>
+      <c r="J19" s="61">
+        <f t="shared" si="2"/>
+        <v>0.33230054221533695</v>
+      </c>
+      <c r="K19" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="54">
+        <v>9164</v>
+      </c>
+      <c r="M19" s="54">
+        <v>1512</v>
+      </c>
+      <c r="N19" s="54">
+        <v>10676</v>
+      </c>
+      <c r="O19" s="61">
+        <f t="shared" si="3"/>
+        <v>0.14162607718246534</v>
+      </c>
+      <c r="P19" s="81">
+        <f t="shared" si="4"/>
+        <v>-19.067446503287162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="24">
+        <v>13792</v>
+      </c>
+      <c r="C20" s="24">
+        <v>6864</v>
+      </c>
+      <c r="D20" s="24">
+        <v>20656</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="54">
+        <v>6898</v>
+      </c>
+      <c r="H20" s="54">
+        <v>740</v>
+      </c>
+      <c r="I20" s="54">
+        <v>7638</v>
+      </c>
+      <c r="J20" s="61">
+        <f t="shared" si="2"/>
+        <v>9.68840010473946E-2</v>
+      </c>
+      <c r="K20" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="54">
+        <v>6460</v>
+      </c>
+      <c r="M20" s="54">
+        <v>2058</v>
+      </c>
+      <c r="N20" s="54">
+        <v>8518</v>
+      </c>
+      <c r="O20" s="61">
+        <f t="shared" si="3"/>
+        <v>0.24160601080065744</v>
+      </c>
+      <c r="P20" s="81">
+        <f t="shared" si="4"/>
+        <v>14.472200975326283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="24">
+        <v>6898</v>
+      </c>
+      <c r="C21" s="24">
+        <v>740</v>
+      </c>
+      <c r="D21" s="24">
+        <v>7638</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="54">
+        <v>94093</v>
+      </c>
+      <c r="H21" s="54">
+        <v>41877</v>
+      </c>
+      <c r="I21" s="54">
+        <v>135970</v>
+      </c>
+      <c r="J21" s="61">
+        <f t="shared" si="2"/>
+        <v>0.30798705596822828</v>
+      </c>
+      <c r="K21" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="54">
+        <v>97812</v>
+      </c>
+      <c r="M21" s="54">
+        <v>48500</v>
+      </c>
+      <c r="N21" s="54">
+        <v>146312</v>
+      </c>
+      <c r="O21" s="61">
+        <f t="shared" si="3"/>
+        <v>0.33148340532560555</v>
+      </c>
+      <c r="P21" s="81">
+        <f t="shared" si="4"/>
+        <v>2.3496349357377264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="24">
+        <v>94093</v>
+      </c>
+      <c r="C22" s="24">
+        <v>41877</v>
+      </c>
+      <c r="D22" s="24">
+        <v>135970</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="54">
+        <v>24797</v>
+      </c>
+      <c r="H22" s="54">
+        <v>3442</v>
+      </c>
+      <c r="I22" s="54">
+        <v>28239</v>
+      </c>
+      <c r="J22" s="61">
+        <f t="shared" si="2"/>
+        <v>0.12188816884450583</v>
+      </c>
+      <c r="K22" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="54">
+        <v>11389</v>
+      </c>
+      <c r="M22" s="54">
+        <v>813</v>
+      </c>
+      <c r="N22" s="54">
+        <v>12202</v>
+      </c>
+      <c r="O22" s="61">
+        <f t="shared" si="3"/>
+        <v>6.6628421570234395E-2</v>
+      </c>
+      <c r="P22" s="81">
+        <f t="shared" si="4"/>
+        <v>-5.525974727427144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="24">
+        <v>24797</v>
+      </c>
+      <c r="C23" s="24">
+        <v>3442</v>
+      </c>
+      <c r="D23" s="24">
+        <v>28239</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="54">
+        <v>40655</v>
+      </c>
+      <c r="H23" s="54">
+        <v>3947</v>
+      </c>
+      <c r="I23" s="54">
+        <v>44602</v>
+      </c>
+      <c r="J23" s="61">
+        <f t="shared" si="2"/>
+        <v>8.8493789516165197E-2</v>
+      </c>
+      <c r="K23" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="54">
+        <v>42477</v>
+      </c>
+      <c r="M23" s="54">
+        <v>5021</v>
+      </c>
+      <c r="N23" s="54">
+        <v>47498</v>
+      </c>
+      <c r="O23" s="61">
+        <f t="shared" si="3"/>
+        <v>0.10570971409322498</v>
+      </c>
+      <c r="P23" s="81">
+        <f t="shared" si="4"/>
+        <v>1.7215924577059782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="24">
+        <v>40655</v>
+      </c>
+      <c r="C24" s="24">
+        <v>3947</v>
+      </c>
+      <c r="D24" s="24">
+        <v>44602</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="54">
+        <v>8446</v>
+      </c>
+      <c r="H24" s="54">
+        <v>1326</v>
+      </c>
+      <c r="I24" s="54">
+        <v>9772</v>
+      </c>
+      <c r="J24" s="61">
+        <f t="shared" si="2"/>
+        <v>0.13569381907490791</v>
+      </c>
+      <c r="K24" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="54">
+        <v>9394</v>
+      </c>
+      <c r="M24" s="54">
+        <v>1553</v>
+      </c>
+      <c r="N24" s="54">
+        <v>10947</v>
+      </c>
+      <c r="O24" s="61">
+        <f t="shared" si="3"/>
+        <v>0.14186535123778204</v>
+      </c>
+      <c r="P24" s="81">
+        <f t="shared" si="4"/>
+        <v>0.61715321628741382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="24">
+        <v>8446</v>
+      </c>
+      <c r="C25" s="24">
+        <v>1326</v>
+      </c>
+      <c r="D25" s="24">
+        <v>9772</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="54">
+        <v>1777</v>
+      </c>
+      <c r="H25" s="54">
+        <v>286</v>
+      </c>
+      <c r="I25" s="54">
+        <v>2063</v>
+      </c>
+      <c r="J25" s="61">
+        <f t="shared" si="2"/>
+        <v>0.1386330586524479</v>
+      </c>
+      <c r="K25" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="54">
+        <v>2447</v>
+      </c>
+      <c r="M25" s="54">
+        <v>363</v>
+      </c>
+      <c r="N25" s="54">
+        <v>2810</v>
+      </c>
+      <c r="O25" s="61">
+        <f t="shared" si="3"/>
+        <v>0.12918149466192172</v>
+      </c>
+      <c r="P25" s="81">
+        <f t="shared" si="4"/>
+        <v>-0.9451563990526185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="24">
+        <v>1777</v>
+      </c>
+      <c r="C26" s="24">
+        <v>286</v>
+      </c>
+      <c r="D26" s="24">
+        <v>2063</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="54">
+        <v>26807</v>
+      </c>
+      <c r="H26" s="54">
+        <v>2952</v>
+      </c>
+      <c r="I26" s="54">
+        <v>29759</v>
+      </c>
+      <c r="J26" s="61">
+        <f t="shared" si="2"/>
+        <v>9.9196881615645688E-2</v>
+      </c>
+      <c r="K26" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="54">
+        <v>26181</v>
+      </c>
+      <c r="M26" s="54">
+        <v>4343</v>
+      </c>
+      <c r="N26" s="54">
+        <v>30524</v>
+      </c>
+      <c r="O26" s="61">
+        <f t="shared" si="3"/>
+        <v>0.14228148342288036</v>
+      </c>
+      <c r="P26" s="81">
+        <f t="shared" si="4"/>
+        <v>4.3084601807234666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="24">
+        <v>26807</v>
+      </c>
+      <c r="C27" s="24">
+        <v>2952</v>
+      </c>
+      <c r="D27" s="24">
+        <v>29759</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="54">
+        <v>1843</v>
+      </c>
+      <c r="H27" s="54">
+        <v>112</v>
+      </c>
+      <c r="I27" s="54">
+        <v>1955</v>
+      </c>
+      <c r="J27" s="61">
+        <f t="shared" si="2"/>
+        <v>5.7289002557544759E-2</v>
+      </c>
+      <c r="K27" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="54">
+        <v>1371</v>
+      </c>
+      <c r="M27" s="54">
+        <v>148</v>
+      </c>
+      <c r="N27" s="54">
+        <v>1519</v>
+      </c>
+      <c r="O27" s="61">
+        <f t="shared" si="3"/>
+        <v>9.7432521395655031E-2</v>
+      </c>
+      <c r="P27" s="81">
+        <f t="shared" si="4"/>
+        <v>4.0143518838110275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="24">
+        <v>1843</v>
+      </c>
+      <c r="C28" s="24">
+        <v>112</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1955</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="40">
+        <f>SUM(G18:G27)</f>
+        <v>280407</v>
+      </c>
+      <c r="H28" s="40">
+        <f>SUM(H18:H27)</f>
+        <v>101978</v>
+      </c>
+      <c r="I28" s="40">
+        <f>SUM(I18:I27)</f>
+        <v>382385</v>
+      </c>
+      <c r="J28" s="61">
+        <f t="shared" si="2"/>
+        <v>0.26668933143297985</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28" s="40">
+        <f>SUM(L18:L27)</f>
+        <v>267210</v>
+      </c>
+      <c r="M28" s="40">
+        <f>SUM(M18:M27)</f>
+        <v>112250</v>
+      </c>
+      <c r="N28" s="40">
+        <f>SUM(N18:N27)</f>
+        <v>379460</v>
+      </c>
+      <c r="O28" s="61">
+        <f t="shared" si="3"/>
+        <v>0.29581510567648767</v>
+      </c>
+      <c r="P28" s="81">
+        <f t="shared" si="4"/>
+        <v>2.9125774243507818</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="23">
+        <v>2018</v>
+      </c>
+      <c r="B29" s="24">
+        <v>267210</v>
+      </c>
+      <c r="C29" s="24">
+        <v>112250</v>
+      </c>
+      <c r="D29" s="24">
+        <v>379460</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="24">
+        <v>60515</v>
+      </c>
+      <c r="C30" s="24">
+        <v>47939</v>
+      </c>
+      <c r="D30" s="24">
+        <v>108454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="24">
+        <v>9164</v>
+      </c>
+      <c r="C31" s="24">
+        <v>1512</v>
+      </c>
+      <c r="D31" s="24">
+        <v>10676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="24">
+        <v>6460</v>
+      </c>
+      <c r="C32" s="24">
+        <v>2058</v>
+      </c>
+      <c r="D32" s="24">
+        <v>8518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="24">
+        <v>97812</v>
+      </c>
+      <c r="C33" s="24">
+        <v>48500</v>
+      </c>
+      <c r="D33" s="24">
+        <v>146312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="24">
+        <v>11389</v>
+      </c>
+      <c r="C34" s="24">
+        <v>813</v>
+      </c>
+      <c r="D34" s="24">
+        <v>12202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="24">
+        <v>42477</v>
+      </c>
+      <c r="C35" s="24">
+        <v>5021</v>
+      </c>
+      <c r="D35" s="24">
+        <v>47498</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="24">
+        <v>9394</v>
+      </c>
+      <c r="C36" s="24">
+        <v>1553</v>
+      </c>
+      <c r="D36" s="24">
+        <v>10947</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="24">
+        <v>2447</v>
+      </c>
+      <c r="C37" s="24">
+        <v>363</v>
+      </c>
+      <c r="D37" s="24">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="24">
+        <v>26181</v>
+      </c>
+      <c r="C38" s="24">
+        <v>4343</v>
+      </c>
+      <c r="D38" s="24">
+        <v>30524</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="24">
+        <v>1371</v>
+      </c>
+      <c r="C39" s="24">
+        <v>148</v>
+      </c>
+      <c r="D39" s="24">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="24">
+        <v>547617</v>
+      </c>
+      <c r="C40" s="24">
+        <v>214228</v>
+      </c>
+      <c r="D40" s="24">
+        <v>761845</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A44" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A45" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="A49" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="J49" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="K49" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="N49" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="O49" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="P49" s="53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="23">
+        <v>2014</v>
+      </c>
+      <c r="B50" s="24">
+        <v>280407</v>
+      </c>
+      <c r="C50" s="24">
+        <v>101978</v>
+      </c>
+      <c r="D50" s="24">
+        <v>382385</v>
+      </c>
+      <c r="F50" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="54">
+        <v>41926</v>
+      </c>
+      <c r="H50" s="54">
+        <v>35549</v>
+      </c>
+      <c r="I50" s="54">
+        <v>77475</v>
+      </c>
+      <c r="J50" s="61">
+        <f t="shared" ref="J50:J60" si="5">H50/I50</f>
+        <v>0.45884478864149725</v>
+      </c>
+      <c r="K50" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" s="54">
+        <v>44447</v>
+      </c>
+      <c r="M50" s="54">
+        <v>39156</v>
+      </c>
+      <c r="N50" s="54">
+        <v>83603</v>
+      </c>
+      <c r="O50" s="61">
+        <f t="shared" ref="O50:O60" si="6">M50/N50</f>
+        <v>0.46835639869382678</v>
+      </c>
+      <c r="P50" s="81">
+        <f t="shared" ref="P50:P59" si="7">((O50-J50)*100)</f>
+        <v>0.95116100523295333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="24">
+        <v>156793</v>
+      </c>
+      <c r="C51" s="24">
+        <v>87983</v>
+      </c>
+      <c r="D51" s="24">
+        <v>244776</v>
+      </c>
+      <c r="F51" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="54">
+        <v>9943</v>
+      </c>
+      <c r="H51" s="54">
+        <v>5819</v>
+      </c>
+      <c r="I51" s="54">
+        <v>15762</v>
+      </c>
+      <c r="J51" s="61">
+        <f t="shared" si="5"/>
+        <v>0.3691790381931227</v>
+      </c>
+      <c r="K51" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" s="54">
+        <v>6868</v>
+      </c>
+      <c r="M51" s="54">
+        <v>1399</v>
+      </c>
+      <c r="N51" s="54">
+        <v>8267</v>
+      </c>
+      <c r="O51" s="61">
+        <f t="shared" si="6"/>
+        <v>0.16922704729647997</v>
+      </c>
+      <c r="P51" s="81">
+        <f t="shared" si="7"/>
+        <v>-19.995199089664272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="24">
+        <v>41926</v>
+      </c>
+      <c r="C52" s="24">
+        <v>35549</v>
+      </c>
+      <c r="D52" s="24">
+        <v>77475</v>
+      </c>
+      <c r="F52" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="54">
+        <v>3513</v>
+      </c>
+      <c r="H52" s="54">
+        <v>639</v>
+      </c>
+      <c r="I52" s="54">
+        <v>4152</v>
+      </c>
+      <c r="J52" s="61">
+        <f t="shared" si="5"/>
+        <v>0.15390173410404626</v>
+      </c>
+      <c r="K52" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="54">
+        <v>3694</v>
+      </c>
+      <c r="M52" s="54">
+        <v>1368</v>
+      </c>
+      <c r="N52" s="54">
+        <v>5062</v>
+      </c>
+      <c r="O52" s="61">
+        <f t="shared" si="6"/>
+        <v>0.27024891347293561</v>
+      </c>
+      <c r="P52" s="81">
+        <f t="shared" si="7"/>
+        <v>11.634717936888936</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="24">
+        <v>9943</v>
+      </c>
+      <c r="C53" s="24">
+        <v>5819</v>
+      </c>
+      <c r="D53" s="24">
+        <v>15762</v>
+      </c>
+      <c r="F53" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="54">
+        <v>64414</v>
+      </c>
+      <c r="H53" s="54">
+        <v>36559</v>
+      </c>
+      <c r="I53" s="54">
+        <v>100973</v>
+      </c>
+      <c r="J53" s="61">
+        <f t="shared" si="5"/>
+        <v>0.36206708724114367</v>
+      </c>
+      <c r="K53" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="L53" s="54">
+        <v>67660</v>
+      </c>
+      <c r="M53" s="54">
+        <v>41002</v>
+      </c>
+      <c r="N53" s="54">
+        <v>108662</v>
+      </c>
+      <c r="O53" s="61">
+        <f t="shared" si="6"/>
+        <v>0.37733522298503619</v>
+      </c>
+      <c r="P53" s="81">
+        <f t="shared" si="7"/>
+        <v>1.5268135743892519</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="24">
+        <v>3513</v>
+      </c>
+      <c r="C54" s="24">
+        <v>639</v>
+      </c>
+      <c r="D54" s="24">
+        <v>4152</v>
+      </c>
+      <c r="F54" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="54">
+        <v>12713</v>
+      </c>
+      <c r="H54" s="54">
+        <v>2788</v>
+      </c>
+      <c r="I54" s="54">
+        <v>15501</v>
+      </c>
+      <c r="J54" s="61">
+        <f t="shared" si="5"/>
+        <v>0.17985936391200569</v>
+      </c>
+      <c r="K54" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="54">
+        <v>5739</v>
+      </c>
+      <c r="M54" s="54">
+        <v>699</v>
+      </c>
+      <c r="N54" s="54">
+        <v>6438</v>
+      </c>
+      <c r="O54" s="61">
+        <f t="shared" si="6"/>
+        <v>0.10857409133271202</v>
+      </c>
+      <c r="P54" s="81">
+        <f t="shared" si="7"/>
+        <v>-7.1285272579293668</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="24">
+        <v>64414</v>
+      </c>
+      <c r="C55" s="24">
+        <v>36559</v>
+      </c>
+      <c r="D55" s="24">
+        <v>100973</v>
+      </c>
+      <c r="F55" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="54">
+        <v>13944</v>
+      </c>
+      <c r="H55" s="54">
+        <v>3529</v>
+      </c>
+      <c r="I55" s="54">
+        <v>17473</v>
+      </c>
+      <c r="J55" s="61">
+        <f t="shared" si="5"/>
+        <v>0.20196875178847365</v>
+      </c>
+      <c r="K55" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="54">
+        <v>15401</v>
+      </c>
+      <c r="M55" s="54">
+        <v>3574</v>
+      </c>
+      <c r="N55" s="54">
+        <v>18975</v>
+      </c>
+      <c r="O55" s="61">
+        <f t="shared" si="6"/>
+        <v>0.18835309617918314</v>
+      </c>
+      <c r="P55" s="81">
+        <f t="shared" si="7"/>
+        <v>-1.3615655609290511</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="24">
+        <v>12713</v>
+      </c>
+      <c r="C56" s="24">
+        <v>2788</v>
+      </c>
+      <c r="D56" s="24">
+        <v>15501</v>
+      </c>
+      <c r="F56" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="54">
+        <v>3039</v>
+      </c>
+      <c r="H56" s="54">
+        <v>1032</v>
+      </c>
+      <c r="I56" s="54">
+        <v>4071</v>
+      </c>
+      <c r="J56" s="61">
+        <f t="shared" si="5"/>
+        <v>0.25350036845983787</v>
+      </c>
+      <c r="K56" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" s="54">
+        <v>3814</v>
+      </c>
+      <c r="M56" s="54">
+        <v>1251</v>
+      </c>
+      <c r="N56" s="54">
+        <v>5065</v>
+      </c>
+      <c r="O56" s="61">
+        <f t="shared" si="6"/>
+        <v>0.24698914116485687</v>
+      </c>
+      <c r="P56" s="81">
+        <f t="shared" si="7"/>
+        <v>-0.65112272949809924</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="24">
+        <v>13944</v>
+      </c>
+      <c r="C57" s="24">
+        <v>3529</v>
+      </c>
+      <c r="D57" s="24">
+        <v>17473</v>
+      </c>
+      <c r="F57" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="54">
+        <v>976</v>
+      </c>
+      <c r="H57" s="54">
+        <v>219</v>
+      </c>
+      <c r="I57" s="54">
+        <v>1195</v>
+      </c>
+      <c r="J57" s="61">
+        <f t="shared" si="5"/>
+        <v>0.18326359832635983</v>
+      </c>
+      <c r="K57" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="L57" s="54">
+        <v>1386</v>
+      </c>
+      <c r="M57" s="54">
+        <v>292</v>
+      </c>
+      <c r="N57" s="54">
+        <v>1678</v>
+      </c>
+      <c r="O57" s="61">
+        <f t="shared" si="6"/>
+        <v>0.17401668653158522</v>
+      </c>
+      <c r="P57" s="81">
+        <f t="shared" si="7"/>
+        <v>-0.92469117947746038</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="24">
+        <v>3039</v>
+      </c>
+      <c r="C58" s="24">
+        <v>1032</v>
+      </c>
+      <c r="D58" s="24">
+        <v>4071</v>
+      </c>
+      <c r="F58" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="54">
+        <v>5178</v>
+      </c>
+      <c r="H58" s="54">
+        <v>1754</v>
+      </c>
+      <c r="I58" s="54">
+        <v>6932</v>
+      </c>
+      <c r="J58" s="61">
+        <f t="shared" si="5"/>
+        <v>0.25302942873629541</v>
+      </c>
+      <c r="K58" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="54">
+        <v>6037</v>
+      </c>
+      <c r="M58" s="54">
+        <v>1345</v>
+      </c>
+      <c r="N58" s="54">
+        <v>7382</v>
+      </c>
+      <c r="O58" s="61">
+        <f t="shared" si="6"/>
+        <v>0.18219994581414251</v>
+      </c>
+      <c r="P58" s="81">
+        <f t="shared" si="7"/>
+        <v>-7.0829482922152911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="24">
+        <v>976</v>
+      </c>
+      <c r="C59" s="24">
+        <v>219</v>
+      </c>
+      <c r="D59" s="24">
+        <v>1195</v>
+      </c>
+      <c r="F59" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="54">
+        <v>1147</v>
+      </c>
+      <c r="H59" s="54">
+        <v>95</v>
+      </c>
+      <c r="I59" s="54">
+        <v>1242</v>
+      </c>
+      <c r="J59" s="61">
+        <f t="shared" si="5"/>
+        <v>7.6489533011272148E-2</v>
+      </c>
+      <c r="K59" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="L59" s="54">
+        <v>787</v>
+      </c>
+      <c r="M59" s="54">
+        <v>130</v>
+      </c>
+      <c r="N59" s="54">
+        <v>917</v>
+      </c>
+      <c r="O59" s="61">
+        <f t="shared" si="6"/>
+        <v>0.14176663031624864</v>
+      </c>
+      <c r="P59" s="81">
+        <f t="shared" si="7"/>
+        <v>6.5277097304976497</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="24">
+        <v>5178</v>
+      </c>
+      <c r="C60" s="24">
+        <v>1754</v>
+      </c>
+      <c r="D60" s="24">
+        <v>6932</v>
+      </c>
+      <c r="F60" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60" s="54">
+        <f>SUM(G50:G59)</f>
+        <v>156793</v>
+      </c>
+      <c r="H60" s="54">
+        <f>SUM(H50:H59)</f>
+        <v>87983</v>
+      </c>
+      <c r="I60" s="54">
+        <f>SUM(I50:I59)</f>
+        <v>244776</v>
+      </c>
+      <c r="J60" s="61">
+        <f t="shared" si="5"/>
+        <v>0.35944291924044841</v>
+      </c>
+      <c r="K60" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="L60" s="54">
+        <f>SUM(L50:L59)</f>
+        <v>155833</v>
+      </c>
+      <c r="M60" s="54">
+        <f>SUM(M50:M59)</f>
+        <v>90216</v>
+      </c>
+      <c r="N60" s="54">
+        <f>SUM(N50:N59)</f>
+        <v>246049</v>
+      </c>
+      <c r="O60" s="61">
+        <f t="shared" si="6"/>
+        <v>0.36665867367882005</v>
+      </c>
+      <c r="P60" s="77">
+        <f>O60-J60</f>
+        <v>7.2157544383716354E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="24">
+        <v>1147</v>
+      </c>
+      <c r="C61" s="24">
+        <v>95</v>
+      </c>
+      <c r="D61" s="24">
+        <v>1242</v>
+      </c>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="24">
+        <v>123614</v>
+      </c>
+      <c r="C62" s="24">
+        <v>13995</v>
+      </c>
+      <c r="D62" s="24">
+        <v>137609</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="24">
+        <v>19373</v>
+      </c>
+      <c r="C63" s="24">
+        <v>4883</v>
+      </c>
+      <c r="D63" s="24">
+        <v>24256</v>
+      </c>
+      <c r="F63" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="L63" s="70"/>
+      <c r="M63" s="70"/>
+      <c r="N63" s="70"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="A64" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="24">
+        <v>3849</v>
+      </c>
+      <c r="C64" s="24">
+        <v>1045</v>
+      </c>
+      <c r="D64" s="24">
+        <v>4894</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="J64" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="K64" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L64" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="M64" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="N64" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="O64" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="P64" s="53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="24">
+        <v>3385</v>
+      </c>
+      <c r="C65" s="24">
+        <v>101</v>
+      </c>
+      <c r="D65" s="24">
+        <v>3486</v>
+      </c>
+      <c r="F65" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="54">
+        <v>19373</v>
+      </c>
+      <c r="H65" s="54">
+        <v>4883</v>
+      </c>
+      <c r="I65" s="54">
+        <v>24256</v>
+      </c>
+      <c r="J65" s="61">
+        <f t="shared" ref="J65:J75" si="8">H65/I65</f>
+        <v>0.20131101583113456</v>
+      </c>
+      <c r="K65" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="L65" s="54">
+        <v>16068</v>
+      </c>
+      <c r="M65" s="54">
+        <v>8783</v>
+      </c>
+      <c r="N65" s="54">
+        <v>24851</v>
+      </c>
+      <c r="O65" s="61">
+        <f t="shared" ref="O65:O75" si="9">M65/N65</f>
+        <v>0.35342642147197295</v>
+      </c>
+      <c r="P65" s="81">
+        <f t="shared" ref="P65:P74" si="10">((O65-J65)*100)</f>
+        <v>15.211540564083839</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="24">
+        <v>29679</v>
+      </c>
+      <c r="C66" s="24">
+        <v>5318</v>
+      </c>
+      <c r="D66" s="24">
+        <v>34997</v>
+      </c>
+      <c r="F66" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="54">
+        <v>3849</v>
+      </c>
+      <c r="H66" s="54">
+        <v>1045</v>
+      </c>
+      <c r="I66" s="54">
+        <v>4894</v>
+      </c>
+      <c r="J66" s="61">
+        <f t="shared" si="8"/>
+        <v>0.21352676747037189</v>
+      </c>
+      <c r="K66" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="L66" s="54">
+        <v>2296</v>
+      </c>
+      <c r="M66" s="54">
+        <v>113</v>
+      </c>
+      <c r="N66" s="54">
+        <v>2409</v>
+      </c>
+      <c r="O66" s="61">
+        <f t="shared" si="9"/>
+        <v>4.6907430469074307E-2</v>
+      </c>
+      <c r="P66" s="81">
+        <f t="shared" si="10"/>
+        <v>-16.661933700129758</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="24">
+        <v>12084</v>
+      </c>
+      <c r="C67" s="24">
+        <v>654</v>
+      </c>
+      <c r="D67" s="24">
+        <v>12738</v>
+      </c>
+      <c r="F67" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="54">
+        <v>3385</v>
+      </c>
+      <c r="H67" s="54">
+        <v>101</v>
+      </c>
+      <c r="I67" s="54">
+        <v>3486</v>
+      </c>
+      <c r="J67" s="61">
+        <f t="shared" si="8"/>
+        <v>2.8973034997131383E-2</v>
+      </c>
+      <c r="K67" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="L67" s="54">
+        <v>2766</v>
+      </c>
+      <c r="M67" s="54">
+        <v>690</v>
+      </c>
+      <c r="N67" s="54">
+        <v>3456</v>
+      </c>
+      <c r="O67" s="61">
+        <f t="shared" si="9"/>
+        <v>0.19965277777777779</v>
+      </c>
+      <c r="P67" s="81">
+        <f t="shared" si="10"/>
+        <v>17.067974278064639</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="24">
+        <v>26711</v>
+      </c>
+      <c r="C68" s="24">
+        <v>418</v>
+      </c>
+      <c r="D68" s="24">
+        <v>27129</v>
+      </c>
+      <c r="F68" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="54">
+        <v>29679</v>
+      </c>
+      <c r="H68" s="54">
+        <v>5318</v>
+      </c>
+      <c r="I68" s="54">
+        <v>34997</v>
+      </c>
+      <c r="J68" s="61">
+        <f t="shared" si="8"/>
+        <v>0.1519558819327371</v>
+      </c>
+      <c r="K68" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="L68" s="54">
+        <v>30152</v>
+      </c>
+      <c r="M68" s="54">
+        <v>7498</v>
+      </c>
+      <c r="N68" s="54">
+        <v>37650</v>
+      </c>
+      <c r="O68" s="61">
+        <f t="shared" si="9"/>
+        <v>0.19915006640106242</v>
+      </c>
+      <c r="P68" s="81">
+        <f t="shared" si="10"/>
+        <v>4.719418446832532</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="24">
+        <v>5407</v>
+      </c>
+      <c r="C69" s="24">
+        <v>294</v>
+      </c>
+      <c r="D69" s="24">
+        <v>5701</v>
+      </c>
+      <c r="F69" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="54">
+        <v>12084</v>
+      </c>
+      <c r="H69" s="54">
+        <v>654</v>
+      </c>
+      <c r="I69" s="54">
+        <v>12738</v>
+      </c>
+      <c r="J69" s="61">
+        <f t="shared" si="8"/>
+        <v>5.134243994347621E-2</v>
+      </c>
+      <c r="K69" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="54">
+        <v>5650</v>
+      </c>
+      <c r="M69" s="54">
+        <v>114</v>
+      </c>
+      <c r="N69" s="54">
+        <v>5764</v>
+      </c>
+      <c r="O69" s="61">
+        <f t="shared" si="9"/>
+        <v>1.9777931991672451E-2</v>
+      </c>
+      <c r="P69" s="81">
+        <f t="shared" si="10"/>
+        <v>-3.1564507951803757</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="24">
+        <v>801</v>
+      </c>
+      <c r="C70" s="24">
+        <v>67</v>
+      </c>
+      <c r="D70" s="24">
+        <v>868</v>
+      </c>
+      <c r="F70" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="54">
+        <v>26711</v>
+      </c>
+      <c r="H70" s="54">
+        <v>418</v>
+      </c>
+      <c r="I70" s="54">
+        <v>27129</v>
+      </c>
+      <c r="J70" s="61">
+        <f t="shared" si="8"/>
+        <v>1.5407866121124995E-2</v>
+      </c>
+      <c r="K70" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="54">
+        <v>27076</v>
+      </c>
+      <c r="M70" s="54">
+        <v>1447</v>
+      </c>
+      <c r="N70" s="54">
+        <v>28523</v>
+      </c>
+      <c r="O70" s="61">
+        <f t="shared" si="9"/>
+        <v>5.0730989026399748E-2</v>
+      </c>
+      <c r="P70" s="81">
+        <f t="shared" si="10"/>
+        <v>3.5323122905274755</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="24">
+        <v>21629</v>
+      </c>
+      <c r="C71" s="24">
+        <v>1198</v>
+      </c>
+      <c r="D71" s="24">
+        <v>22827</v>
+      </c>
+      <c r="F71" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="54">
+        <v>5407</v>
+      </c>
+      <c r="H71" s="54">
+        <v>294</v>
+      </c>
+      <c r="I71" s="54">
+        <v>5701</v>
+      </c>
+      <c r="J71" s="61">
+        <f t="shared" si="8"/>
+        <v>5.1569900017540783E-2</v>
+      </c>
+      <c r="K71" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" s="54">
+        <v>5580</v>
+      </c>
+      <c r="M71" s="54">
+        <v>302</v>
+      </c>
+      <c r="N71" s="54">
+        <v>5882</v>
+      </c>
+      <c r="O71" s="61">
+        <f t="shared" si="9"/>
+        <v>5.1343080584835089E-2</v>
+      </c>
+      <c r="P71" s="81">
+        <f t="shared" si="10"/>
+        <v>-2.2681943270569382E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="24">
+        <v>696</v>
+      </c>
+      <c r="C72" s="24">
+        <v>17</v>
+      </c>
+      <c r="D72" s="24">
+        <v>713</v>
+      </c>
+      <c r="F72" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="54">
+        <v>801</v>
+      </c>
+      <c r="H72" s="54">
+        <v>67</v>
+      </c>
+      <c r="I72" s="54">
+        <v>868</v>
+      </c>
+      <c r="J72" s="61">
+        <f t="shared" si="8"/>
+        <v>7.7188940092165897E-2</v>
+      </c>
+      <c r="K72" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="L72" s="54">
+        <v>1061</v>
+      </c>
+      <c r="M72" s="54">
+        <v>71</v>
+      </c>
+      <c r="N72" s="54">
+        <v>1132</v>
+      </c>
+      <c r="O72" s="61">
+        <f t="shared" si="9"/>
+        <v>6.2720848056537104E-2</v>
+      </c>
+      <c r="P72" s="81">
+        <f t="shared" si="10"/>
+        <v>-1.4468092035628795</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73" s="23">
+        <v>2018</v>
+      </c>
+      <c r="B73" s="24">
+        <v>267210</v>
+      </c>
+      <c r="C73" s="24">
+        <v>112250</v>
+      </c>
+      <c r="D73" s="24">
+        <v>379460</v>
+      </c>
+      <c r="F73" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="54">
+        <v>21629</v>
+      </c>
+      <c r="H73" s="54">
+        <v>1198</v>
+      </c>
+      <c r="I73" s="54">
+        <v>22827</v>
+      </c>
+      <c r="J73" s="61">
+        <f t="shared" si="8"/>
+        <v>5.2481710255399307E-2</v>
+      </c>
+      <c r="K73" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73" s="54">
+        <v>20144</v>
+      </c>
+      <c r="M73" s="54">
+        <v>2998</v>
+      </c>
+      <c r="N73" s="54">
+        <v>23142</v>
+      </c>
+      <c r="O73" s="61">
+        <f t="shared" si="9"/>
+        <v>0.12954800795091176</v>
+      </c>
+      <c r="P73" s="81">
+        <f t="shared" si="10"/>
+        <v>7.7066297695512462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="24">
+        <v>155833</v>
+      </c>
+      <c r="C74" s="24">
+        <v>90216</v>
+      </c>
+      <c r="D74" s="24">
+        <v>246049</v>
+      </c>
+      <c r="F74" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="54">
+        <v>696</v>
+      </c>
+      <c r="H74" s="54">
+        <v>17</v>
+      </c>
+      <c r="I74" s="54">
+        <v>713</v>
+      </c>
+      <c r="J74" s="61">
+        <f t="shared" si="8"/>
+        <v>2.3842917251051893E-2</v>
+      </c>
+      <c r="K74" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="L74" s="54">
+        <v>584</v>
+      </c>
+      <c r="M74" s="54">
+        <v>18</v>
+      </c>
+      <c r="N74" s="54">
+        <v>602</v>
+      </c>
+      <c r="O74" s="61">
+        <f t="shared" si="9"/>
+        <v>2.9900332225913623E-2</v>
+      </c>
+      <c r="P74" s="81">
+        <f t="shared" si="10"/>
+        <v>0.60574149748617301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="24">
+        <v>44447</v>
+      </c>
+      <c r="C75" s="24">
+        <v>39156</v>
+      </c>
+      <c r="D75" s="24">
+        <v>83603</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G75" s="54">
+        <f>SUM(G65:G74)</f>
+        <v>123614</v>
+      </c>
+      <c r="H75" s="54">
+        <f>SUM(H65:H74)</f>
+        <v>13995</v>
+      </c>
+      <c r="I75" s="54">
+        <f>SUM(I65:I74)</f>
+        <v>137609</v>
+      </c>
+      <c r="J75" s="61">
+        <f t="shared" si="8"/>
+        <v>0.10170119686939082</v>
+      </c>
+      <c r="K75" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="L75" s="54">
+        <f>SUM(L65:L74)</f>
+        <v>111377</v>
+      </c>
+      <c r="M75" s="54">
+        <f>SUM(M65:M74)</f>
+        <v>22034</v>
+      </c>
+      <c r="N75" s="54">
+        <f>SUM(N65:N74)</f>
+        <v>133411</v>
+      </c>
+      <c r="O75" s="61">
+        <f t="shared" si="9"/>
+        <v>0.16515879500191138</v>
+      </c>
+      <c r="P75" s="77">
+        <f>O75-J75</f>
+        <v>6.3457598132520568E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A76" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="24">
+        <v>6868</v>
+      </c>
+      <c r="C76" s="24">
+        <v>1399</v>
+      </c>
+      <c r="D76" s="24">
+        <v>8267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="24">
+        <v>3694</v>
+      </c>
+      <c r="C77" s="24">
+        <v>1368</v>
+      </c>
+      <c r="D77" s="24">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="24">
+        <v>67660</v>
+      </c>
+      <c r="C78" s="24">
+        <v>41002</v>
+      </c>
+      <c r="D78" s="24">
+        <v>108662</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="24">
+        <v>5739</v>
+      </c>
+      <c r="C79" s="24">
+        <v>699</v>
+      </c>
+      <c r="D79" s="24">
+        <v>6438</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="24">
+        <v>15401</v>
+      </c>
+      <c r="C80" s="24">
+        <v>3574</v>
+      </c>
+      <c r="D80" s="24">
+        <v>18975</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="24">
+        <v>3814</v>
+      </c>
+      <c r="C81" s="24">
+        <v>1251</v>
+      </c>
+      <c r="D81" s="24">
+        <v>5065</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="24">
+        <v>1386</v>
+      </c>
+      <c r="C82" s="24">
+        <v>292</v>
+      </c>
+      <c r="D82" s="24">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="24">
+        <v>6037</v>
+      </c>
+      <c r="C83" s="24">
+        <v>1345</v>
+      </c>
+      <c r="D83" s="24">
+        <v>7382</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="24">
+        <v>787</v>
+      </c>
+      <c r="C84" s="24">
+        <v>130</v>
+      </c>
+      <c r="D84" s="24">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="24">
+        <v>111377</v>
+      </c>
+      <c r="C85" s="24">
+        <v>22034</v>
+      </c>
+      <c r="D85" s="24">
+        <v>133411</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="24">
+        <v>16068</v>
+      </c>
+      <c r="C86" s="24">
+        <v>8783</v>
+      </c>
+      <c r="D86" s="24">
+        <v>24851</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="24">
+        <v>2296</v>
+      </c>
+      <c r="C87" s="24">
+        <v>113</v>
+      </c>
+      <c r="D87" s="24">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="24">
+        <v>2766</v>
+      </c>
+      <c r="C88" s="24">
+        <v>690</v>
+      </c>
+      <c r="D88" s="24">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="24">
+        <v>30152</v>
+      </c>
+      <c r="C89" s="24">
+        <v>7498</v>
+      </c>
+      <c r="D89" s="24">
+        <v>37650</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="24">
+        <v>5650</v>
+      </c>
+      <c r="C90" s="24">
+        <v>114</v>
+      </c>
+      <c r="D90" s="24">
+        <v>5764</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="24">
+        <v>27076</v>
+      </c>
+      <c r="C91" s="24">
+        <v>1447</v>
+      </c>
+      <c r="D91" s="24">
+        <v>28523</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="24">
+        <v>5580</v>
+      </c>
+      <c r="C92" s="24">
+        <v>302</v>
+      </c>
+      <c r="D92" s="24">
+        <v>5882</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="24">
+        <v>1061</v>
+      </c>
+      <c r="C93" s="24">
+        <v>71</v>
+      </c>
+      <c r="D93" s="24">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="24">
+        <v>20144</v>
+      </c>
+      <c r="C94" s="24">
+        <v>2998</v>
+      </c>
+      <c r="D94" s="24">
+        <v>23142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="24">
+        <v>584</v>
+      </c>
+      <c r="C95" s="24">
+        <v>18</v>
+      </c>
+      <c r="D95" s="24">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" s="24">
+        <v>547617</v>
+      </c>
+      <c r="C96" s="24">
+        <v>214228</v>
+      </c>
+      <c r="D96" s="24">
+        <v>761845</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF0345B-4F03-A043-8DEC-52A669A192F1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:I98"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="83"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="86">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="86">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="86">
+        <v>2018</v>
+      </c>
+      <c r="F4" s="86">
+        <v>2018</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="L5" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="L6" s="84">
+        <f>COUNTIF((J7:J98),"Female higher")</f>
+        <v>72</v>
+      </c>
+      <c r="M6" s="84">
+        <f>COUNTIF((J7:J98),"Male higher")</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="87">
+        <v>123</v>
+      </c>
+      <c r="D7" s="87">
+        <v>247</v>
+      </c>
+      <c r="E7" s="87">
+        <v>7</v>
+      </c>
+      <c r="F7" s="87">
+        <v>33</v>
+      </c>
+      <c r="G7" s="61">
+        <f>E7/(C7+E7)</f>
+        <v>5.3846153846153849E-2</v>
+      </c>
+      <c r="H7" s="61">
+        <f>F7/(D7+F7)</f>
+        <v>0.11785714285714285</v>
+      </c>
+      <c r="I7" s="61">
+        <f>SUM(E7:F7)/SUM(C7:F7)</f>
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="J7" s="14" t="str">
+        <f>IF((G7&gt;H7),"Male higher","Female Higher")</f>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="87">
+        <v>2294</v>
+      </c>
+      <c r="D8" s="87">
+        <v>2666</v>
+      </c>
+      <c r="E8" s="87">
+        <v>1687</v>
+      </c>
+      <c r="F8" s="87">
+        <v>764</v>
+      </c>
+      <c r="G8" s="61">
+        <f t="shared" ref="G8:H65" si="0">E8/(C8+E8)</f>
+        <v>0.42376287364983672</v>
+      </c>
+      <c r="H8" s="61">
+        <f t="shared" si="0"/>
+        <v>0.2227405247813411</v>
+      </c>
+      <c r="I8" s="61">
+        <f t="shared" ref="I8:I71" si="1">SUM(E8:F8)/SUM(C8:F8)</f>
+        <v>0.33072459856969372</v>
+      </c>
+      <c r="J8" s="14" t="str">
+        <f t="shared" ref="J8:J71" si="2">IF((G8&gt;H8),"Male higher","Female Higher")</f>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="87">
+        <v>6</v>
+      </c>
+      <c r="D9" s="87">
+        <v>13</v>
+      </c>
+      <c r="E9" s="87">
+        <v>2501</v>
+      </c>
+      <c r="F9" s="87">
+        <v>19110</v>
+      </c>
+      <c r="G9" s="61">
+        <f>E9/(C9+E9)</f>
+        <v>0.99760670123653772</v>
+      </c>
+      <c r="H9" s="61">
+        <f>F9/(D9+F9)</f>
+        <v>0.99932019034670294</v>
+      </c>
+      <c r="I9" s="61">
+        <f t="shared" si="1"/>
+        <v>0.99912159038372628</v>
+      </c>
+      <c r="J9" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="87">
+        <v>13645</v>
+      </c>
+      <c r="D10" s="87">
+        <v>41521</v>
+      </c>
+      <c r="E10" s="87">
+        <v>4588</v>
+      </c>
+      <c r="F10" s="87">
+        <v>19249</v>
+      </c>
+      <c r="G10" s="61">
+        <f t="shared" si="0"/>
+        <v>0.25163165688586631</v>
+      </c>
+      <c r="H10" s="61">
+        <f t="shared" si="0"/>
+        <v>0.3167516866875103</v>
+      </c>
+      <c r="I10" s="61">
+        <f t="shared" si="1"/>
+        <v>0.3017227193904029</v>
+      </c>
+      <c r="J10" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="87">
+        <v>2240</v>
+      </c>
+      <c r="D11" s="87">
+        <v>6734</v>
+      </c>
+      <c r="E11" s="87">
+        <v>103</v>
+      </c>
+      <c r="F11" s="87">
+        <v>1370</v>
+      </c>
+      <c r="G11" s="61">
+        <f t="shared" si="0"/>
+        <v>4.396073410157917E-2</v>
+      </c>
+      <c r="H11" s="61">
+        <f t="shared" si="0"/>
+        <v>0.16905231984205329</v>
+      </c>
+      <c r="I11" s="61">
+        <f t="shared" si="1"/>
+        <v>0.14099741552598832</v>
+      </c>
+      <c r="J11" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="87">
+        <v>20</v>
+      </c>
+      <c r="D12" s="87">
+        <v>43</v>
+      </c>
+      <c r="E12" s="87">
+        <v>5</v>
+      </c>
+      <c r="F12" s="87">
+        <v>5</v>
+      </c>
+      <c r="G12" s="61">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="61">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="I12" s="61">
+        <f t="shared" si="1"/>
+        <v>0.13698630136986301</v>
+      </c>
+      <c r="J12" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="87">
+        <v>36</v>
+      </c>
+      <c r="D13" s="87">
+        <v>91</v>
+      </c>
+      <c r="E13" s="87">
+        <v>5</v>
+      </c>
+      <c r="F13" s="87">
+        <v>24</v>
+      </c>
+      <c r="G13" s="61">
+        <f t="shared" si="0"/>
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="H13" s="61">
+        <f t="shared" si="0"/>
+        <v>0.20869565217391303</v>
+      </c>
+      <c r="I13" s="61">
+        <f t="shared" si="1"/>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="J13" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="87">
+        <v>2100</v>
+      </c>
+      <c r="D14" s="87">
+        <v>2454</v>
+      </c>
+      <c r="E14" s="87">
+        <v>604</v>
+      </c>
+      <c r="F14" s="87">
+        <v>845</v>
+      </c>
+      <c r="G14" s="61">
+        <f t="shared" si="0"/>
+        <v>0.22337278106508876</v>
+      </c>
+      <c r="H14" s="61">
+        <f t="shared" si="0"/>
+        <v>0.25613822370415279</v>
+      </c>
+      <c r="I14" s="61">
+        <f t="shared" si="1"/>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="J14" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="87">
+        <v>666</v>
+      </c>
+      <c r="D15" s="87">
+        <v>1240</v>
+      </c>
+      <c r="E15" s="87">
+        <v>86</v>
+      </c>
+      <c r="F15" s="87">
+        <v>523</v>
+      </c>
+      <c r="G15" s="61">
+        <f t="shared" si="0"/>
+        <v>0.11436170212765957</v>
+      </c>
+      <c r="H15" s="61">
+        <f t="shared" si="0"/>
+        <v>0.2966534316505956</v>
+      </c>
+      <c r="I15" s="61">
+        <f t="shared" si="1"/>
+        <v>0.24214711729622265</v>
+      </c>
+      <c r="J15" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="87">
+        <v>38</v>
+      </c>
+      <c r="D16" s="87">
+        <v>102</v>
+      </c>
+      <c r="E16" s="87">
+        <v>6</v>
+      </c>
+      <c r="F16" s="87">
+        <v>27</v>
+      </c>
+      <c r="G16" s="61">
+        <f t="shared" si="0"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="H16" s="61">
+        <f t="shared" si="0"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="I16" s="61">
+        <f t="shared" si="1"/>
+        <v>0.19075144508670519</v>
+      </c>
+      <c r="J16" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="87">
+        <v>96</v>
+      </c>
+      <c r="D17" s="87">
+        <v>311</v>
+      </c>
+      <c r="E17" s="87">
+        <v>57</v>
+      </c>
+      <c r="F17" s="87">
+        <v>409</v>
+      </c>
+      <c r="G17" s="61">
+        <f t="shared" si="0"/>
+        <v>0.37254901960784315</v>
+      </c>
+      <c r="H17" s="61">
+        <f t="shared" si="0"/>
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="I17" s="61">
+        <f t="shared" si="1"/>
+        <v>0.53379152348224512</v>
+      </c>
+      <c r="J17" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="87">
+        <v>3080</v>
+      </c>
+      <c r="D18" s="87">
+        <v>2012</v>
+      </c>
+      <c r="E18" s="87">
+        <v>97</v>
+      </c>
+      <c r="F18" s="87">
+        <v>142</v>
+      </c>
+      <c r="G18" s="61">
+        <f t="shared" si="0"/>
+        <v>3.0531948378973876E-2</v>
+      </c>
+      <c r="H18" s="61">
+        <f t="shared" si="0"/>
+        <v>6.5923862581244191E-2</v>
+      </c>
+      <c r="I18" s="61">
+        <f t="shared" si="1"/>
+        <v>4.4832114049896829E-2</v>
+      </c>
+      <c r="J18" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="87">
+        <v>14</v>
+      </c>
+      <c r="D19" s="87">
+        <v>27</v>
+      </c>
+      <c r="E19" s="87">
+        <v>6</v>
+      </c>
+      <c r="F19" s="87">
+        <v>5</v>
+      </c>
+      <c r="G19" s="61">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="61">
+        <f t="shared" si="0"/>
+        <v>0.15625</v>
+      </c>
+      <c r="I19" s="61">
+        <f t="shared" si="1"/>
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="J19" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="87">
+        <v>52</v>
+      </c>
+      <c r="D20" s="87">
+        <v>175</v>
+      </c>
+      <c r="E20" s="87">
+        <v>6</v>
+      </c>
+      <c r="F20" s="87">
+        <v>35</v>
+      </c>
+      <c r="G20" s="61">
+        <f t="shared" si="0"/>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="H20" s="61">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I20" s="61">
+        <f t="shared" si="1"/>
+        <v>0.15298507462686567</v>
+      </c>
+      <c r="J20" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="87">
+        <v>1121</v>
+      </c>
+      <c r="D21" s="87">
+        <v>2852</v>
+      </c>
+      <c r="E21" s="87">
+        <v>291</v>
+      </c>
+      <c r="F21" s="87">
+        <v>2260</v>
+      </c>
+      <c r="G21" s="61">
+        <f t="shared" si="0"/>
+        <v>0.20609065155807366</v>
+      </c>
+      <c r="H21" s="61">
+        <f t="shared" si="0"/>
+        <v>0.44209702660406885</v>
+      </c>
+      <c r="I21" s="61">
+        <f t="shared" si="1"/>
+        <v>0.39101778050275904</v>
+      </c>
+      <c r="J21" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="87">
+        <v>27</v>
+      </c>
+      <c r="D22" s="87">
+        <v>66</v>
+      </c>
+      <c r="E22" s="87">
+        <v>6</v>
+      </c>
+      <c r="F22" s="87">
+        <v>13</v>
+      </c>
+      <c r="G22" s="61">
+        <f t="shared" si="0"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H22" s="61">
+        <f t="shared" si="0"/>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="I22" s="61">
+        <f t="shared" si="1"/>
+        <v>0.16964285714285715</v>
+      </c>
+      <c r="J22" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="87">
+        <v>491</v>
+      </c>
+      <c r="D23" s="87">
+        <v>308</v>
+      </c>
+      <c r="E23" s="87">
+        <v>6</v>
+      </c>
+      <c r="F23" s="87">
+        <v>13</v>
+      </c>
+      <c r="G23" s="61">
+        <f t="shared" si="0"/>
+        <v>1.2072434607645875E-2</v>
+      </c>
+      <c r="H23" s="61">
+        <f t="shared" si="0"/>
+        <v>4.0498442367601244E-2</v>
+      </c>
+      <c r="I23" s="61">
+        <f t="shared" si="1"/>
+        <v>2.3227383863080684E-2</v>
+      </c>
+      <c r="J23" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="87">
+        <v>149</v>
+      </c>
+      <c r="D24" s="87">
+        <v>436</v>
+      </c>
+      <c r="E24" s="87">
+        <v>10</v>
+      </c>
+      <c r="F24" s="87">
+        <v>163</v>
+      </c>
+      <c r="G24" s="61">
+        <f t="shared" si="0"/>
+        <v>6.2893081761006289E-2</v>
+      </c>
+      <c r="H24" s="61">
+        <f t="shared" si="0"/>
+        <v>0.27212020033388984</v>
+      </c>
+      <c r="I24" s="61">
+        <f t="shared" si="1"/>
+        <v>0.22823218997361477</v>
+      </c>
+      <c r="J24" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="87">
+        <v>28</v>
+      </c>
+      <c r="D25" s="87">
+        <v>65</v>
+      </c>
+      <c r="E25" s="87">
+        <v>6</v>
+      </c>
+      <c r="F25" s="87">
+        <v>9</v>
+      </c>
+      <c r="G25" s="61">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="H25" s="61">
+        <f t="shared" si="0"/>
+        <v>0.12162162162162163</v>
+      </c>
+      <c r="I25" s="61">
+        <f t="shared" si="1"/>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="J25" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="87">
+        <v>37</v>
+      </c>
+      <c r="D26" s="87">
+        <v>116</v>
+      </c>
+      <c r="E26" s="87">
+        <v>8</v>
+      </c>
+      <c r="F26" s="87">
+        <v>22</v>
+      </c>
+      <c r="G26" s="61">
+        <f t="shared" si="0"/>
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="H26" s="61">
+        <f t="shared" si="0"/>
+        <v>0.15942028985507245</v>
+      </c>
+      <c r="I26" s="61">
+        <f t="shared" si="1"/>
+        <v>0.16393442622950818</v>
+      </c>
+      <c r="J26" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="87">
+        <v>36</v>
+      </c>
+      <c r="D27" s="87">
+        <v>30</v>
+      </c>
+      <c r="E27" s="87">
+        <v>5</v>
+      </c>
+      <c r="F27" s="87">
+        <v>6</v>
+      </c>
+      <c r="G27" s="61">
+        <f t="shared" si="0"/>
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="H27" s="61">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I27" s="61">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J27" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="87">
+        <v>1193</v>
+      </c>
+      <c r="D28" s="87">
+        <v>2376</v>
+      </c>
+      <c r="E28" s="87">
+        <v>231</v>
+      </c>
+      <c r="F28" s="87">
+        <v>1273</v>
+      </c>
+      <c r="G28" s="61">
+        <f t="shared" si="0"/>
+        <v>0.1622191011235955</v>
+      </c>
+      <c r="H28" s="61">
+        <f t="shared" si="0"/>
+        <v>0.34886270211016718</v>
+      </c>
+      <c r="I28" s="61">
+        <f t="shared" si="1"/>
+        <v>0.29647151586832249</v>
+      </c>
+      <c r="J28" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="87">
+        <v>21</v>
+      </c>
+      <c r="D29" s="87">
+        <v>106</v>
+      </c>
+      <c r="E29" s="87">
+        <v>6</v>
+      </c>
+      <c r="F29" s="87">
+        <v>6</v>
+      </c>
+      <c r="G29" s="61">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H29" s="61">
+        <f t="shared" si="0"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="I29" s="61">
+        <f t="shared" si="1"/>
+        <v>8.6330935251798566E-2</v>
+      </c>
+      <c r="J29" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="87">
+        <v>74</v>
+      </c>
+      <c r="D30" s="87">
+        <v>120</v>
+      </c>
+      <c r="E30" s="87">
+        <v>6</v>
+      </c>
+      <c r="F30" s="87">
+        <v>11</v>
+      </c>
+      <c r="G30" s="61">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H30" s="61">
+        <f t="shared" si="0"/>
+        <v>8.3969465648854963E-2</v>
+      </c>
+      <c r="I30" s="61">
+        <f t="shared" si="1"/>
+        <v>8.0568720379146919E-2</v>
+      </c>
+      <c r="J30" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="87">
+        <v>2034</v>
+      </c>
+      <c r="D31" s="87">
+        <v>3196</v>
+      </c>
+      <c r="E31" s="87">
+        <v>493</v>
+      </c>
+      <c r="F31" s="87">
+        <v>1969</v>
+      </c>
+      <c r="G31" s="61">
+        <f t="shared" si="0"/>
+        <v>0.19509299564701227</v>
+      </c>
+      <c r="H31" s="61">
+        <f t="shared" si="0"/>
+        <v>0.3812197483059051</v>
+      </c>
+      <c r="I31" s="61">
+        <f t="shared" si="1"/>
+        <v>0.32007280291211648</v>
+      </c>
+      <c r="J31" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="87">
+        <v>2217</v>
+      </c>
+      <c r="D32" s="87">
+        <v>6173</v>
+      </c>
+      <c r="E32" s="87">
+        <v>653</v>
+      </c>
+      <c r="F32" s="87">
+        <v>5830</v>
+      </c>
+      <c r="G32" s="61">
+        <f t="shared" si="0"/>
+        <v>0.22752613240418118</v>
+      </c>
+      <c r="H32" s="61">
+        <f t="shared" si="0"/>
+        <v>0.4857119053569941</v>
+      </c>
+      <c r="I32" s="61">
+        <f t="shared" si="1"/>
+        <v>0.43589053990452498</v>
+      </c>
+      <c r="J32" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="87">
+        <v>1214</v>
+      </c>
+      <c r="D33" s="87">
+        <v>2899</v>
+      </c>
+      <c r="E33" s="87">
+        <v>323</v>
+      </c>
+      <c r="F33" s="87">
+        <v>2441</v>
+      </c>
+      <c r="G33" s="61">
+        <f t="shared" si="0"/>
+        <v>0.21014964216005205</v>
+      </c>
+      <c r="H33" s="61">
+        <f t="shared" si="0"/>
+        <v>0.45711610486891385</v>
+      </c>
+      <c r="I33" s="61">
+        <f t="shared" si="1"/>
+        <v>0.40191944161698417</v>
+      </c>
+      <c r="J33" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="87">
+        <v>358</v>
+      </c>
+      <c r="D34" s="87">
+        <v>766</v>
+      </c>
+      <c r="E34" s="87">
+        <v>85</v>
+      </c>
+      <c r="F34" s="87">
+        <v>369</v>
+      </c>
+      <c r="G34" s="61">
+        <f t="shared" si="0"/>
+        <v>0.19187358916478556</v>
+      </c>
+      <c r="H34" s="61">
+        <f t="shared" si="0"/>
+        <v>0.3251101321585903</v>
+      </c>
+      <c r="I34" s="61">
+        <f t="shared" si="1"/>
+        <v>0.2877059569074778</v>
+      </c>
+      <c r="J34" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="87">
+        <v>5</v>
+      </c>
+      <c r="D35" s="87">
+        <v>18</v>
+      </c>
+      <c r="E35" s="87">
+        <v>5</v>
+      </c>
+      <c r="F35" s="87">
+        <v>6</v>
+      </c>
+      <c r="G35" s="61">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="61">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="I35" s="61">
+        <f t="shared" si="1"/>
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="J35" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="87">
+        <v>622</v>
+      </c>
+      <c r="D36" s="87">
+        <v>1499</v>
+      </c>
+      <c r="E36" s="87">
+        <v>300</v>
+      </c>
+      <c r="F36" s="87">
+        <v>1604</v>
+      </c>
+      <c r="G36" s="61">
+        <f t="shared" si="0"/>
+        <v>0.32537960954446854</v>
+      </c>
+      <c r="H36" s="61">
+        <f t="shared" si="0"/>
+        <v>0.51691911053818884</v>
+      </c>
+      <c r="I36" s="61">
+        <f t="shared" si="1"/>
+        <v>0.47304347826086957</v>
+      </c>
+      <c r="J36" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="87">
+        <v>259</v>
+      </c>
+      <c r="D37" s="87">
+        <v>632</v>
+      </c>
+      <c r="E37" s="87">
+        <v>6</v>
+      </c>
+      <c r="F37" s="87">
+        <v>35</v>
+      </c>
+      <c r="G37" s="61">
+        <f t="shared" si="0"/>
+        <v>2.2641509433962263E-2</v>
+      </c>
+      <c r="H37" s="61">
+        <f t="shared" si="0"/>
+        <v>5.2473763118440778E-2</v>
+      </c>
+      <c r="I37" s="61">
+        <f t="shared" si="1"/>
+        <v>4.3991416309012876E-2</v>
+      </c>
+      <c r="J37" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="87">
+        <v>531</v>
+      </c>
+      <c r="D38" s="87">
+        <v>1652</v>
+      </c>
+      <c r="E38" s="87">
+        <v>96</v>
+      </c>
+      <c r="F38" s="87">
+        <v>1489</v>
+      </c>
+      <c r="G38" s="61">
+        <f t="shared" si="0"/>
+        <v>0.15311004784688995</v>
+      </c>
+      <c r="H38" s="61">
+        <f t="shared" si="0"/>
+        <v>0.47405284941101561</v>
+      </c>
+      <c r="I38" s="61">
+        <f t="shared" si="1"/>
+        <v>0.42064755838641188</v>
+      </c>
+      <c r="J38" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="87">
+        <v>1115</v>
+      </c>
+      <c r="D39" s="87">
+        <v>2716</v>
+      </c>
+      <c r="E39" s="87">
+        <v>231</v>
+      </c>
+      <c r="F39" s="87">
+        <v>1424</v>
+      </c>
+      <c r="G39" s="61">
+        <f t="shared" si="0"/>
+        <v>0.17161961367013373</v>
+      </c>
+      <c r="H39" s="61">
+        <f t="shared" si="0"/>
+        <v>0.34396135265700484</v>
+      </c>
+      <c r="I39" s="61">
+        <f t="shared" si="1"/>
+        <v>0.3016769959897922</v>
+      </c>
+      <c r="J39" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="87">
+        <v>829</v>
+      </c>
+      <c r="D40" s="87">
+        <v>1572</v>
+      </c>
+      <c r="E40" s="87">
+        <v>444</v>
+      </c>
+      <c r="F40" s="87">
+        <v>2464</v>
+      </c>
+      <c r="G40" s="61">
+        <f t="shared" si="0"/>
+        <v>0.34878240377062059</v>
+      </c>
+      <c r="H40" s="61">
+        <f t="shared" si="0"/>
+        <v>0.61050545094152631</v>
+      </c>
+      <c r="I40" s="61">
+        <f t="shared" si="1"/>
+        <v>0.54774910529289889</v>
+      </c>
+      <c r="J40" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="87">
+        <v>2068</v>
+      </c>
+      <c r="D41" s="87">
+        <v>5198</v>
+      </c>
+      <c r="E41" s="87">
+        <v>524</v>
+      </c>
+      <c r="F41" s="87">
+        <v>2969</v>
+      </c>
+      <c r="G41" s="61">
+        <f t="shared" si="0"/>
+        <v>0.2021604938271605</v>
+      </c>
+      <c r="H41" s="61">
+        <f t="shared" si="0"/>
+        <v>0.36353618219664502</v>
+      </c>
+      <c r="I41" s="61">
+        <f t="shared" si="1"/>
+        <v>0.32465842550422902</v>
+      </c>
+      <c r="J41" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="87">
+        <v>2802</v>
+      </c>
+      <c r="D42" s="87">
+        <v>6452</v>
+      </c>
+      <c r="E42" s="87">
+        <v>586</v>
+      </c>
+      <c r="F42" s="87">
+        <v>2998</v>
+      </c>
+      <c r="G42" s="61">
+        <f t="shared" si="0"/>
+        <v>0.1729634002361275</v>
+      </c>
+      <c r="H42" s="61">
+        <f t="shared" si="0"/>
+        <v>0.31724867724867722</v>
+      </c>
+      <c r="I42" s="61">
+        <f t="shared" si="1"/>
+        <v>0.27917121046892041</v>
+      </c>
+      <c r="J42" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="87">
+        <v>2492</v>
+      </c>
+      <c r="D43" s="87">
+        <v>6903</v>
+      </c>
+      <c r="E43" s="87">
+        <v>483</v>
+      </c>
+      <c r="F43" s="87">
+        <v>2739</v>
+      </c>
+      <c r="G43" s="61">
+        <f t="shared" si="0"/>
+        <v>0.16235294117647059</v>
+      </c>
+      <c r="H43" s="61">
+        <f t="shared" si="0"/>
+        <v>0.28406969508400748</v>
+      </c>
+      <c r="I43" s="61">
+        <f t="shared" si="1"/>
+        <v>0.25536973924070699</v>
+      </c>
+      <c r="J43" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="87">
+        <v>355</v>
+      </c>
+      <c r="D44" s="87">
+        <v>929</v>
+      </c>
+      <c r="E44" s="87">
+        <v>164</v>
+      </c>
+      <c r="F44" s="87">
+        <v>1246</v>
+      </c>
+      <c r="G44" s="61">
+        <f t="shared" si="0"/>
+        <v>0.31599229287090558</v>
+      </c>
+      <c r="H44" s="61">
+        <f t="shared" si="0"/>
+        <v>0.57287356321839078</v>
+      </c>
+      <c r="I44" s="61">
+        <f t="shared" si="1"/>
+        <v>0.52338530066815148</v>
+      </c>
+      <c r="J44" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="87">
+        <v>857</v>
+      </c>
+      <c r="D45" s="87">
+        <v>3130</v>
+      </c>
+      <c r="E45" s="87">
+        <v>230</v>
+      </c>
+      <c r="F45" s="87">
+        <v>1722</v>
+      </c>
+      <c r="G45" s="61">
+        <f t="shared" si="0"/>
+        <v>0.21159153633854647</v>
+      </c>
+      <c r="H45" s="61">
+        <f t="shared" si="0"/>
+        <v>0.35490519373454243</v>
+      </c>
+      <c r="I45" s="61">
+        <f t="shared" si="1"/>
+        <v>0.3286748610877252</v>
+      </c>
+      <c r="J45" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="87">
+        <v>2155</v>
+      </c>
+      <c r="D46" s="87">
+        <v>5121</v>
+      </c>
+      <c r="E46" s="87">
+        <v>1504</v>
+      </c>
+      <c r="F46" s="87">
+        <v>2985</v>
+      </c>
+      <c r="G46" s="61">
+        <f t="shared" si="0"/>
+        <v>0.41104126810603991</v>
+      </c>
+      <c r="H46" s="61">
+        <f t="shared" si="0"/>
+        <v>0.3682457438934123</v>
+      </c>
+      <c r="I46" s="61">
+        <f t="shared" si="1"/>
+        <v>0.38155546111347216</v>
+      </c>
+      <c r="J46" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="87">
+        <v>1006</v>
+      </c>
+      <c r="D47" s="87">
+        <v>2836</v>
+      </c>
+      <c r="E47" s="87">
+        <v>158</v>
+      </c>
+      <c r="F47" s="87">
+        <v>1854</v>
+      </c>
+      <c r="G47" s="61">
+        <f t="shared" si="0"/>
+        <v>0.13573883161512026</v>
+      </c>
+      <c r="H47" s="61">
+        <f t="shared" si="0"/>
+        <v>0.39530916844349678</v>
+      </c>
+      <c r="I47" s="61">
+        <f t="shared" si="1"/>
+        <v>0.34369661769730098</v>
+      </c>
+      <c r="J47" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="87">
+        <v>2776</v>
+      </c>
+      <c r="D48" s="87">
+        <v>6866</v>
+      </c>
+      <c r="E48" s="87">
+        <v>466</v>
+      </c>
+      <c r="F48" s="87">
+        <v>2464</v>
+      </c>
+      <c r="G48" s="61">
+        <f t="shared" si="0"/>
+        <v>0.14373843306600864</v>
+      </c>
+      <c r="H48" s="61">
+        <f t="shared" si="0"/>
+        <v>0.26409431939978562</v>
+      </c>
+      <c r="I48" s="61">
+        <f t="shared" si="1"/>
+        <v>0.2330575882914413</v>
+      </c>
+      <c r="J48" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="87">
+        <v>2038</v>
+      </c>
+      <c r="D49" s="87">
+        <v>1977</v>
+      </c>
+      <c r="E49" s="87">
+        <v>42</v>
+      </c>
+      <c r="F49" s="87">
+        <v>404</v>
+      </c>
+      <c r="G49" s="61">
+        <f t="shared" si="0"/>
+        <v>2.0192307692307693E-2</v>
+      </c>
+      <c r="H49" s="61">
+        <f t="shared" si="0"/>
+        <v>0.16967660646787064</v>
+      </c>
+      <c r="I49" s="61">
+        <f t="shared" si="1"/>
+        <v>9.9977583501457079E-2</v>
+      </c>
+      <c r="J49" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="87">
+        <v>481</v>
+      </c>
+      <c r="D50" s="87">
+        <v>126</v>
+      </c>
+      <c r="E50" s="87">
+        <v>5</v>
+      </c>
+      <c r="F50" s="87">
+        <v>5</v>
+      </c>
+      <c r="G50" s="61">
+        <f t="shared" si="0"/>
+        <v>1.0288065843621399E-2</v>
+      </c>
+      <c r="H50" s="61">
+        <f t="shared" si="0"/>
+        <v>3.8167938931297711E-2</v>
+      </c>
+      <c r="I50" s="61">
+        <f t="shared" si="1"/>
+        <v>1.6207455429497569E-2</v>
+      </c>
+      <c r="J50" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="87">
+        <v>295</v>
+      </c>
+      <c r="D51" s="87">
+        <v>95</v>
+      </c>
+      <c r="E51" s="87">
+        <v>11</v>
+      </c>
+      <c r="F51" s="87">
+        <v>53</v>
+      </c>
+      <c r="G51" s="61">
+        <f t="shared" si="0"/>
+        <v>3.5947712418300651E-2</v>
+      </c>
+      <c r="H51" s="61">
+        <f t="shared" si="0"/>
+        <v>0.35810810810810811</v>
+      </c>
+      <c r="I51" s="61">
+        <f t="shared" si="1"/>
+        <v>0.14096916299559473</v>
+      </c>
+      <c r="J51" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="87">
+        <v>42</v>
+      </c>
+      <c r="D52" s="87">
+        <v>28</v>
+      </c>
+      <c r="E52" s="87">
+        <v>6</v>
+      </c>
+      <c r="F52" s="87">
+        <v>14</v>
+      </c>
+      <c r="G52" s="61">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="H52" s="61">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I52" s="61">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="J52" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="87">
+        <v>517</v>
+      </c>
+      <c r="D53" s="87">
+        <v>333</v>
+      </c>
+      <c r="E53" s="87">
+        <v>28</v>
+      </c>
+      <c r="F53" s="87">
+        <v>165</v>
+      </c>
+      <c r="G53" s="61">
+        <f t="shared" si="0"/>
+        <v>5.1376146788990829E-2</v>
+      </c>
+      <c r="H53" s="61">
+        <f t="shared" si="0"/>
+        <v>0.33132530120481929</v>
+      </c>
+      <c r="I53" s="61">
+        <f t="shared" si="1"/>
+        <v>0.18504314477468839</v>
+      </c>
+      <c r="J53" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="87">
+        <v>68</v>
+      </c>
+      <c r="D54" s="87">
+        <v>33</v>
+      </c>
+      <c r="E54" s="87">
+        <v>11</v>
+      </c>
+      <c r="F54" s="87">
+        <v>10</v>
+      </c>
+      <c r="G54" s="61">
+        <f t="shared" si="0"/>
+        <v>0.13924050632911392</v>
+      </c>
+      <c r="H54" s="61">
+        <f t="shared" si="0"/>
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="I54" s="61">
+        <f t="shared" si="1"/>
+        <v>0.1721311475409836</v>
+      </c>
+      <c r="J54" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="87">
+        <v>1612</v>
+      </c>
+      <c r="D55" s="87">
+        <v>2941</v>
+      </c>
+      <c r="E55" s="87">
+        <v>5</v>
+      </c>
+      <c r="F55" s="87">
+        <v>5</v>
+      </c>
+      <c r="G55" s="61">
+        <f t="shared" si="0"/>
+        <v>3.0921459492888066E-3</v>
+      </c>
+      <c r="H55" s="61">
+        <f t="shared" si="0"/>
+        <v>1.6972165648336728E-3</v>
+      </c>
+      <c r="I55" s="61">
+        <f t="shared" si="1"/>
+        <v>2.1915406530791147E-3</v>
+      </c>
+      <c r="J55" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="87">
+        <v>597</v>
+      </c>
+      <c r="D56" s="87">
+        <v>206</v>
+      </c>
+      <c r="E56" s="87">
+        <v>6</v>
+      </c>
+      <c r="F56" s="87">
+        <v>43</v>
+      </c>
+      <c r="G56" s="61">
+        <f t="shared" si="0"/>
+        <v>9.9502487562189053E-3</v>
+      </c>
+      <c r="H56" s="61">
+        <f t="shared" si="0"/>
+        <v>0.17269076305220885</v>
+      </c>
+      <c r="I56" s="61">
+        <f t="shared" si="1"/>
+        <v>5.7511737089201875E-2</v>
+      </c>
+      <c r="J56" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="87">
+        <v>84</v>
+      </c>
+      <c r="D57" s="87">
+        <v>92</v>
+      </c>
+      <c r="E57" s="87">
+        <v>11</v>
+      </c>
+      <c r="F57" s="87">
+        <v>39</v>
+      </c>
+      <c r="G57" s="61">
+        <f t="shared" si="0"/>
+        <v>0.11578947368421053</v>
+      </c>
+      <c r="H57" s="61">
+        <f t="shared" si="0"/>
+        <v>0.29770992366412213</v>
+      </c>
+      <c r="I57" s="61">
+        <f t="shared" si="1"/>
+        <v>0.22123893805309736</v>
+      </c>
+      <c r="J57" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="87">
+        <v>92</v>
+      </c>
+      <c r="D58" s="87">
+        <v>236</v>
+      </c>
+      <c r="E58" s="87">
+        <v>14</v>
+      </c>
+      <c r="F58" s="87">
+        <v>87</v>
+      </c>
+      <c r="G58" s="61">
+        <f t="shared" si="0"/>
+        <v>0.13207547169811321</v>
+      </c>
+      <c r="H58" s="61">
+        <f t="shared" si="0"/>
+        <v>0.26934984520123839</v>
+      </c>
+      <c r="I58" s="61">
+        <f t="shared" si="1"/>
+        <v>0.23543123543123542</v>
+      </c>
+      <c r="J58" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="87">
+        <v>7172</v>
+      </c>
+      <c r="D59" s="87">
+        <v>6446</v>
+      </c>
+      <c r="E59" s="87">
+        <v>136</v>
+      </c>
+      <c r="F59" s="87">
+        <v>909</v>
+      </c>
+      <c r="G59" s="61">
+        <f t="shared" si="0"/>
+        <v>1.8609742747673783E-2</v>
+      </c>
+      <c r="H59" s="61">
+        <f t="shared" si="0"/>
+        <v>0.12358939496940857</v>
+      </c>
+      <c r="I59" s="61">
+        <f t="shared" si="1"/>
+        <v>7.1267816954238561E-2</v>
+      </c>
+      <c r="J59" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="87">
+        <v>3245</v>
+      </c>
+      <c r="D60" s="87">
+        <v>528</v>
+      </c>
+      <c r="E60" s="87">
+        <v>1054</v>
+      </c>
+      <c r="F60" s="87">
+        <v>44</v>
+      </c>
+      <c r="G60" s="61">
+        <f t="shared" si="0"/>
+        <v>0.24517329611537567</v>
+      </c>
+      <c r="H60" s="61">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="I60" s="61">
+        <f t="shared" si="1"/>
+        <v>0.22541572572367072</v>
+      </c>
+      <c r="J60" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="87">
+        <v>8</v>
+      </c>
+      <c r="D61" s="87">
+        <v>10</v>
+      </c>
+      <c r="E61" s="87">
+        <v>6</v>
+      </c>
+      <c r="F61" s="87">
+        <v>7</v>
+      </c>
+      <c r="G61" s="61">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="H61" s="61">
+        <f t="shared" si="0"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="I61" s="61">
+        <f t="shared" si="1"/>
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="J61" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="87">
+        <v>314</v>
+      </c>
+      <c r="D62" s="87">
+        <v>748</v>
+      </c>
+      <c r="E62" s="87">
+        <v>35</v>
+      </c>
+      <c r="F62" s="87">
+        <v>282</v>
+      </c>
+      <c r="G62" s="61">
+        <f t="shared" si="0"/>
+        <v>0.10028653295128939</v>
+      </c>
+      <c r="H62" s="61">
+        <f t="shared" si="0"/>
+        <v>0.27378640776699031</v>
+      </c>
+      <c r="I62" s="61">
+        <f t="shared" si="1"/>
+        <v>0.22987672226250908</v>
+      </c>
+      <c r="J62" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="87">
+        <v>108</v>
+      </c>
+      <c r="D63" s="87">
+        <v>172</v>
+      </c>
+      <c r="E63" s="87">
+        <v>10</v>
+      </c>
+      <c r="F63" s="87">
+        <v>77</v>
+      </c>
+      <c r="G63" s="61">
+        <f t="shared" si="0"/>
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="H63" s="61">
+        <f t="shared" si="0"/>
+        <v>0.30923694779116467</v>
+      </c>
+      <c r="I63" s="61">
+        <f t="shared" si="1"/>
+        <v>0.23705722070844687</v>
+      </c>
+      <c r="J63" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="87">
+        <v>58</v>
+      </c>
+      <c r="D64" s="87">
+        <v>61</v>
+      </c>
+      <c r="E64" s="87">
+        <v>6</v>
+      </c>
+      <c r="F64" s="87">
+        <v>19</v>
+      </c>
+      <c r="G64" s="61">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="H64" s="61">
+        <f t="shared" si="0"/>
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="I64" s="61">
+        <f t="shared" si="1"/>
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="J64" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="87">
+        <v>14762</v>
+      </c>
+      <c r="D65" s="87">
+        <v>6030</v>
+      </c>
+      <c r="E65" s="87">
+        <v>145</v>
+      </c>
+      <c r="F65" s="87">
+        <v>1883</v>
+      </c>
+      <c r="G65" s="61">
+        <f t="shared" si="0"/>
+        <v>9.7269739048769042E-3</v>
+      </c>
+      <c r="H65" s="61">
+        <f t="shared" si="0"/>
+        <v>0.23796284594970302</v>
+      </c>
+      <c r="I65" s="61">
+        <f t="shared" si="1"/>
+        <v>8.8869412795793162E-2</v>
+      </c>
+      <c r="J65" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="87">
+        <v>295</v>
+      </c>
+      <c r="D66" s="87">
+        <v>479</v>
+      </c>
+      <c r="E66" s="87">
+        <v>6</v>
+      </c>
+      <c r="F66" s="87">
+        <v>98</v>
+      </c>
+      <c r="G66" s="61">
+        <f t="shared" ref="G66:H98" si="3">E66/(C66+E66)</f>
+        <v>1.9933554817275746E-2</v>
+      </c>
+      <c r="H66" s="61">
+        <f t="shared" si="3"/>
+        <v>0.16984402079722705</v>
+      </c>
+      <c r="I66" s="61">
+        <f t="shared" si="1"/>
+        <v>0.11845102505694761</v>
+      </c>
+      <c r="J66" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="87">
+        <v>676</v>
+      </c>
+      <c r="D67" s="87">
+        <v>291</v>
+      </c>
+      <c r="E67" s="87">
+        <v>6</v>
+      </c>
+      <c r="F67" s="87">
+        <v>60</v>
+      </c>
+      <c r="G67" s="61">
+        <f t="shared" si="3"/>
+        <v>8.7976539589442824E-3</v>
+      </c>
+      <c r="H67" s="61">
+        <f t="shared" si="3"/>
+        <v>0.17094017094017094</v>
+      </c>
+      <c r="I67" s="61">
+        <f t="shared" si="1"/>
+        <v>6.3891577928363988E-2</v>
+      </c>
+      <c r="J67" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="87">
+        <v>154</v>
+      </c>
+      <c r="D68" s="87">
+        <v>175</v>
+      </c>
+      <c r="E68" s="87">
+        <v>6</v>
+      </c>
+      <c r="F68" s="87">
+        <v>24</v>
+      </c>
+      <c r="G68" s="61">
+        <f t="shared" si="3"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H68" s="61">
+        <f t="shared" si="3"/>
+        <v>0.12060301507537688</v>
+      </c>
+      <c r="I68" s="61">
+        <f t="shared" si="1"/>
+        <v>8.3565459610027856E-2</v>
+      </c>
+      <c r="J68" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="87">
+        <v>27</v>
+      </c>
+      <c r="D69" s="87">
+        <v>15</v>
+      </c>
+      <c r="E69" s="87">
+        <v>6</v>
+      </c>
+      <c r="F69" s="87">
+        <v>6</v>
+      </c>
+      <c r="G69" s="61">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H69" s="61">
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I69" s="61">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="J69" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="87">
+        <v>81</v>
+      </c>
+      <c r="D70" s="87">
+        <v>118</v>
+      </c>
+      <c r="E70" s="87">
+        <v>6</v>
+      </c>
+      <c r="F70" s="87">
+        <v>39</v>
+      </c>
+      <c r="G70" s="61">
+        <f t="shared" si="3"/>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="H70" s="61">
+        <f t="shared" si="3"/>
+        <v>0.24840764331210191</v>
+      </c>
+      <c r="I70" s="61">
+        <f t="shared" si="1"/>
+        <v>0.18442622950819673</v>
+      </c>
+      <c r="J70" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="87">
+        <v>68</v>
+      </c>
+      <c r="D71" s="87">
+        <v>106</v>
+      </c>
+      <c r="E71" s="87">
+        <v>18</v>
+      </c>
+      <c r="F71" s="87">
+        <v>59</v>
+      </c>
+      <c r="G71" s="61">
+        <f t="shared" si="3"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="H71" s="61">
+        <f t="shared" si="3"/>
+        <v>0.3575757575757576</v>
+      </c>
+      <c r="I71" s="61">
+        <f t="shared" si="1"/>
+        <v>0.30677290836653387</v>
+      </c>
+      <c r="J71" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="87">
+        <v>931</v>
+      </c>
+      <c r="D72" s="87">
+        <v>955</v>
+      </c>
+      <c r="E72" s="87">
+        <v>40</v>
+      </c>
+      <c r="F72" s="87">
+        <v>212</v>
+      </c>
+      <c r="G72" s="61">
+        <f t="shared" si="3"/>
+        <v>4.1194644696189497E-2</v>
+      </c>
+      <c r="H72" s="61">
+        <f t="shared" si="3"/>
+        <v>0.181662382176521</v>
+      </c>
+      <c r="I72" s="61">
+        <f t="shared" ref="I72:I98" si="4">SUM(E72:F72)/SUM(C72:F72)</f>
+        <v>0.11786716557530402</v>
+      </c>
+      <c r="J72" s="14" t="str">
+        <f t="shared" ref="J72:J98" si="5">IF((G72&gt;H72),"Male higher","Female Higher")</f>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="87">
+        <v>280</v>
+      </c>
+      <c r="D73" s="87">
+        <v>288</v>
+      </c>
+      <c r="E73" s="87">
+        <v>16</v>
+      </c>
+      <c r="F73" s="87">
+        <v>91</v>
+      </c>
+      <c r="G73" s="61">
+        <f t="shared" si="3"/>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="H73" s="61">
+        <f t="shared" si="3"/>
+        <v>0.24010554089709762</v>
+      </c>
+      <c r="I73" s="61">
+        <f t="shared" si="4"/>
+        <v>0.15851851851851853</v>
+      </c>
+      <c r="J73" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="87">
+        <v>87</v>
+      </c>
+      <c r="D74" s="87">
+        <v>73</v>
+      </c>
+      <c r="E74" s="87">
+        <v>6</v>
+      </c>
+      <c r="F74" s="87">
+        <v>16</v>
+      </c>
+      <c r="G74" s="61">
+        <f t="shared" si="3"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="H74" s="61">
+        <f t="shared" si="3"/>
+        <v>0.1797752808988764</v>
+      </c>
+      <c r="I74" s="61">
+        <f t="shared" si="4"/>
+        <v>0.12087912087912088</v>
+      </c>
+      <c r="J74" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="87">
+        <v>2078</v>
+      </c>
+      <c r="D75" s="87">
+        <v>1324</v>
+      </c>
+      <c r="E75" s="87">
+        <v>117</v>
+      </c>
+      <c r="F75" s="87">
+        <v>598</v>
+      </c>
+      <c r="G75" s="61">
+        <f t="shared" si="3"/>
+        <v>5.330296127562642E-2</v>
+      </c>
+      <c r="H75" s="61">
+        <f t="shared" si="3"/>
+        <v>0.31113423517169614</v>
+      </c>
+      <c r="I75" s="61">
+        <f t="shared" si="4"/>
+        <v>0.1736701481661404</v>
+      </c>
+      <c r="J75" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="87">
+        <v>62</v>
+      </c>
+      <c r="D76" s="87">
+        <v>54</v>
+      </c>
+      <c r="E76" s="87">
+        <v>10</v>
+      </c>
+      <c r="F76" s="87">
+        <v>19</v>
+      </c>
+      <c r="G76" s="61">
+        <f t="shared" si="3"/>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="H76" s="61">
+        <f t="shared" si="3"/>
+        <v>0.26027397260273971</v>
+      </c>
+      <c r="I76" s="61">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="J76" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="87">
+        <v>219</v>
+      </c>
+      <c r="D77" s="87">
+        <v>222</v>
+      </c>
+      <c r="E77" s="87">
+        <v>80</v>
+      </c>
+      <c r="F77" s="87">
+        <v>120</v>
+      </c>
+      <c r="G77" s="61">
+        <f t="shared" si="3"/>
+        <v>0.26755852842809363</v>
+      </c>
+      <c r="H77" s="61">
+        <f t="shared" si="3"/>
+        <v>0.35087719298245612</v>
+      </c>
+      <c r="I77" s="61">
+        <f t="shared" si="4"/>
+        <v>0.31201248049921998</v>
+      </c>
+      <c r="J77" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="87">
+        <v>1855</v>
+      </c>
+      <c r="D78" s="87">
+        <v>792</v>
+      </c>
+      <c r="E78" s="87">
+        <v>15</v>
+      </c>
+      <c r="F78" s="87">
+        <v>136</v>
+      </c>
+      <c r="G78" s="61">
+        <f t="shared" si="3"/>
+        <v>8.0213903743315516E-3</v>
+      </c>
+      <c r="H78" s="61">
+        <f t="shared" si="3"/>
+        <v>0.14655172413793102</v>
+      </c>
+      <c r="I78" s="61">
+        <f t="shared" si="4"/>
+        <v>5.3967119370979269E-2</v>
+      </c>
+      <c r="J78" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="87">
+        <v>28</v>
+      </c>
+      <c r="D79" s="87">
+        <v>30</v>
+      </c>
+      <c r="E79" s="87">
+        <v>6</v>
+      </c>
+      <c r="F79" s="87">
+        <v>6</v>
+      </c>
+      <c r="G79" s="61">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="H79" s="61">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I79" s="61">
+        <f t="shared" si="4"/>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="J79" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="87">
+        <v>257</v>
+      </c>
+      <c r="D80" s="87">
+        <v>407</v>
+      </c>
+      <c r="E80" s="87">
+        <v>7</v>
+      </c>
+      <c r="F80" s="87">
+        <v>87</v>
+      </c>
+      <c r="G80" s="61">
+        <f t="shared" si="3"/>
+        <v>2.6515151515151516E-2</v>
+      </c>
+      <c r="H80" s="61">
+        <f t="shared" si="3"/>
+        <v>0.17611336032388664</v>
+      </c>
+      <c r="I80" s="61">
+        <f t="shared" si="4"/>
+        <v>0.12401055408970976</v>
+      </c>
+      <c r="J80" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="87">
+        <v>24</v>
+      </c>
+      <c r="D81" s="87">
+        <v>116</v>
+      </c>
+      <c r="E81" s="87">
+        <v>5</v>
+      </c>
+      <c r="F81" s="87">
+        <v>18</v>
+      </c>
+      <c r="G81" s="61">
+        <f t="shared" si="3"/>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="H81" s="61">
+        <f t="shared" si="3"/>
+        <v>0.13432835820895522</v>
+      </c>
+      <c r="I81" s="61">
+        <f t="shared" si="4"/>
+        <v>0.1411042944785276</v>
+      </c>
+      <c r="J81" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="87">
+        <v>65</v>
+      </c>
+      <c r="D82" s="87">
+        <v>55</v>
+      </c>
+      <c r="E82" s="87">
+        <v>6</v>
+      </c>
+      <c r="F82" s="87">
+        <v>22</v>
+      </c>
+      <c r="G82" s="61">
+        <f t="shared" si="3"/>
+        <v>8.4507042253521125E-2</v>
+      </c>
+      <c r="H82" s="61">
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I82" s="61">
+        <f t="shared" si="4"/>
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="J82" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="87">
+        <v>27</v>
+      </c>
+      <c r="D83" s="87">
+        <v>42</v>
+      </c>
+      <c r="E83" s="87">
+        <v>10</v>
+      </c>
+      <c r="F83" s="87">
+        <v>10</v>
+      </c>
+      <c r="G83" s="61">
+        <f t="shared" si="3"/>
+        <v>0.27027027027027029</v>
+      </c>
+      <c r="H83" s="61">
+        <f t="shared" si="3"/>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="I83" s="61">
+        <f t="shared" si="4"/>
+        <v>0.2247191011235955</v>
+      </c>
+      <c r="J83" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="87">
+        <v>8</v>
+      </c>
+      <c r="D84" s="87">
+        <v>10</v>
+      </c>
+      <c r="E84" s="87">
+        <v>6</v>
+      </c>
+      <c r="F84" s="87">
+        <v>5</v>
+      </c>
+      <c r="G84" s="61">
+        <f t="shared" si="3"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="H84" s="61">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I84" s="61">
+        <f t="shared" si="4"/>
+        <v>0.37931034482758619</v>
+      </c>
+      <c r="J84" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="87">
+        <v>73</v>
+      </c>
+      <c r="D85" s="87">
+        <v>83</v>
+      </c>
+      <c r="E85" s="87">
+        <v>5</v>
+      </c>
+      <c r="F85" s="87">
+        <v>5</v>
+      </c>
+      <c r="G85" s="61">
+        <f t="shared" si="3"/>
+        <v>6.4102564102564097E-2</v>
+      </c>
+      <c r="H85" s="61">
+        <f t="shared" si="3"/>
+        <v>5.6818181818181816E-2</v>
+      </c>
+      <c r="I85" s="61">
+        <f t="shared" si="4"/>
+        <v>6.0240963855421686E-2</v>
+      </c>
+      <c r="J85" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="87">
+        <v>469</v>
+      </c>
+      <c r="D86" s="87">
+        <v>391</v>
+      </c>
+      <c r="E86" s="87">
+        <v>9</v>
+      </c>
+      <c r="F86" s="87">
+        <v>64</v>
+      </c>
+      <c r="G86" s="61">
+        <f t="shared" si="3"/>
+        <v>1.8828451882845189E-2</v>
+      </c>
+      <c r="H86" s="61">
+        <f t="shared" si="3"/>
+        <v>0.14065934065934066</v>
+      </c>
+      <c r="I86" s="61">
+        <f t="shared" si="4"/>
+        <v>7.8242229367631297E-2</v>
+      </c>
+      <c r="J86" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="87">
+        <v>53</v>
+      </c>
+      <c r="D87" s="87">
+        <v>137</v>
+      </c>
+      <c r="E87" s="87">
+        <v>6</v>
+      </c>
+      <c r="F87" s="87">
+        <v>47</v>
+      </c>
+      <c r="G87" s="61">
+        <f t="shared" si="3"/>
+        <v>0.10169491525423729</v>
+      </c>
+      <c r="H87" s="61">
+        <f t="shared" si="3"/>
+        <v>0.25543478260869568</v>
+      </c>
+      <c r="I87" s="61">
+        <f t="shared" si="4"/>
+        <v>0.21810699588477367</v>
+      </c>
+      <c r="J87" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="87">
+        <v>15</v>
+      </c>
+      <c r="D88" s="87">
+        <v>30</v>
+      </c>
+      <c r="E88" s="87">
+        <v>5</v>
+      </c>
+      <c r="F88" s="87">
+        <v>10</v>
+      </c>
+      <c r="G88" s="61">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="H88" s="61">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="I88" s="61">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="J88" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="87">
+        <v>42</v>
+      </c>
+      <c r="D89" s="87">
+        <v>85</v>
+      </c>
+      <c r="E89" s="87">
+        <v>6</v>
+      </c>
+      <c r="F89" s="87">
+        <v>18</v>
+      </c>
+      <c r="G89" s="61">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="H89" s="61">
+        <f t="shared" si="3"/>
+        <v>0.17475728155339806</v>
+      </c>
+      <c r="I89" s="61">
+        <f t="shared" si="4"/>
+        <v>0.15894039735099338</v>
+      </c>
+      <c r="J89" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="87">
+        <v>1669</v>
+      </c>
+      <c r="D90" s="87">
+        <v>472</v>
+      </c>
+      <c r="E90" s="87">
+        <v>44</v>
+      </c>
+      <c r="F90" s="87">
+        <v>108</v>
+      </c>
+      <c r="G90" s="61">
+        <f t="shared" si="3"/>
+        <v>2.5685931115002919E-2</v>
+      </c>
+      <c r="H90" s="61">
+        <f t="shared" si="3"/>
+        <v>0.18620689655172415</v>
+      </c>
+      <c r="I90" s="61">
+        <f t="shared" si="4"/>
+        <v>6.628870475359791E-2</v>
+      </c>
+      <c r="J90" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="87">
+        <v>288</v>
+      </c>
+      <c r="D91" s="87">
+        <v>57</v>
+      </c>
+      <c r="E91" s="87">
+        <v>7</v>
+      </c>
+      <c r="F91" s="87">
+        <v>21</v>
+      </c>
+      <c r="G91" s="61">
+        <f t="shared" si="3"/>
+        <v>2.3728813559322035E-2</v>
+      </c>
+      <c r="H91" s="61">
+        <f t="shared" si="3"/>
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="I91" s="61">
+        <f t="shared" si="4"/>
+        <v>7.5067024128686322E-2</v>
+      </c>
+      <c r="J91" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="87">
+        <v>4157</v>
+      </c>
+      <c r="D92" s="87">
+        <v>1341</v>
+      </c>
+      <c r="E92" s="87">
+        <v>516</v>
+      </c>
+      <c r="F92" s="87">
+        <v>723</v>
+      </c>
+      <c r="G92" s="61">
+        <f t="shared" si="3"/>
+        <v>0.11042157072544403</v>
+      </c>
+      <c r="H92" s="61">
+        <f t="shared" si="3"/>
+        <v>0.35029069767441862</v>
+      </c>
+      <c r="I92" s="61">
+        <f t="shared" si="4"/>
+        <v>0.18390975211518479</v>
+      </c>
+      <c r="J92" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" s="87">
+        <v>4240</v>
+      </c>
+      <c r="D93" s="87">
+        <v>262</v>
+      </c>
+      <c r="E93" s="87">
+        <v>498</v>
+      </c>
+      <c r="F93" s="87">
+        <v>57</v>
+      </c>
+      <c r="G93" s="61">
+        <f t="shared" si="3"/>
+        <v>0.10510764035457999</v>
+      </c>
+      <c r="H93" s="61">
+        <f t="shared" si="3"/>
+        <v>0.17868338557993729</v>
+      </c>
+      <c r="I93" s="61">
+        <f t="shared" si="4"/>
+        <v>0.10974886296223058</v>
+      </c>
+      <c r="J93" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="87">
+        <v>7845</v>
+      </c>
+      <c r="D94" s="87">
+        <v>1922</v>
+      </c>
+      <c r="E94" s="87">
+        <v>1354</v>
+      </c>
+      <c r="F94" s="87">
+        <v>216</v>
+      </c>
+      <c r="G94" s="61">
+        <f t="shared" si="3"/>
+        <v>0.14718991194695075</v>
+      </c>
+      <c r="H94" s="61">
+        <f t="shared" si="3"/>
+        <v>0.10102899906454631</v>
+      </c>
+      <c r="I94" s="61">
+        <f t="shared" si="4"/>
+        <v>0.13848460792096676</v>
+      </c>
+      <c r="J94" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="87">
+        <v>1945</v>
+      </c>
+      <c r="D95" s="87">
+        <v>1983</v>
+      </c>
+      <c r="E95" s="87">
+        <v>579</v>
+      </c>
+      <c r="F95" s="87">
+        <v>220</v>
+      </c>
+      <c r="G95" s="61">
+        <f t="shared" si="3"/>
+        <v>0.22939778129952457</v>
+      </c>
+      <c r="H95" s="61">
+        <f t="shared" si="3"/>
+        <v>9.9863822060826141E-2</v>
+      </c>
+      <c r="I95" s="61">
+        <f t="shared" si="4"/>
+        <v>0.16902898244129469</v>
+      </c>
+      <c r="J95" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96" s="87">
+        <v>288</v>
+      </c>
+      <c r="D96" s="87">
+        <v>492</v>
+      </c>
+      <c r="E96" s="87">
+        <v>6</v>
+      </c>
+      <c r="F96" s="87">
+        <v>75</v>
+      </c>
+      <c r="G96" s="61">
+        <f t="shared" si="3"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="H96" s="61">
+        <f t="shared" si="3"/>
+        <v>0.13227513227513227</v>
+      </c>
+      <c r="I96" s="61">
+        <f t="shared" si="4"/>
+        <v>9.4076655052264813E-2</v>
+      </c>
+      <c r="J96" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="87">
+        <v>18</v>
+      </c>
+      <c r="D97" s="87">
+        <v>21</v>
+      </c>
+      <c r="E97" s="87">
+        <v>6</v>
+      </c>
+      <c r="F97" s="87">
+        <v>6</v>
+      </c>
+      <c r="G97" s="61">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="H97" s="61">
+        <f t="shared" si="3"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="I97" s="61">
+        <f t="shared" si="4"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="J97" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Male higher</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="87">
+        <v>278</v>
+      </c>
+      <c r="D98" s="87">
+        <v>274</v>
+      </c>
+      <c r="E98" s="87">
+        <v>6</v>
+      </c>
+      <c r="F98" s="87">
+        <v>49</v>
+      </c>
+      <c r="G98" s="61">
+        <f t="shared" si="3"/>
+        <v>2.1126760563380281E-2</v>
+      </c>
+      <c r="H98" s="61">
+        <f t="shared" si="3"/>
+        <v>0.15170278637770898</v>
+      </c>
+      <c r="I98" s="61">
+        <f t="shared" si="4"/>
+        <v>9.0609555189456348E-2</v>
+      </c>
+      <c r="J98" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Female Higher</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B99" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="16">
+        <f t="shared" ref="C99:F99" si="6">SUM(C7:C98)</f>
+        <v>111377</v>
+      </c>
+      <c r="D99" s="16">
+        <f t="shared" si="6"/>
+        <v>155833</v>
+      </c>
+      <c r="E99" s="16">
+        <f>SUM(E7:E98)</f>
+        <v>22034</v>
+      </c>
+      <c r="F99" s="16">
+        <f t="shared" si="6"/>
+        <v>90216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="14"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="18">
+        <f>SUM(C99:D99)</f>
+        <v>267210</v>
+      </c>
+      <c r="E100" s="19"/>
+      <c r="F100" s="18">
+        <f>SUM(E99:F99)</f>
+        <v>112250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="14"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="16">
+        <f>SUM(C99:F99)</f>
+        <v>379460</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G7:I98">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
